--- a/generator/data/generated_workers_labels_map.xlsx
+++ b/generator/data/generated_workers_labels_map.xlsx
@@ -4847,7 +4847,7 @@
         <v>258</v>
       </c>
       <c r="I116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J116" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>258</v>
       </c>
       <c r="I117" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J117" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>258</v>
       </c>
       <c r="I126" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J126" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         <v>258</v>
       </c>
       <c r="I127" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J127" t="inlineStr">
         <is>
@@ -5327,7 +5327,7 @@
         <v>258</v>
       </c>
       <c r="I128" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J128" t="inlineStr">
         <is>
@@ -5407,7 +5407,7 @@
         <v>258</v>
       </c>
       <c r="I130" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J130" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>258</v>
       </c>
       <c r="I140" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J140" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         <v>258</v>
       </c>
       <c r="I141" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J141" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>258</v>
       </c>
       <c r="I142" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J142" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>258</v>
       </c>
       <c r="I143" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J143" t="inlineStr">
         <is>
@@ -5963,7 +5963,7 @@
         <v>258</v>
       </c>
       <c r="I144" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J144" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
         <v>258</v>
       </c>
       <c r="I145" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J145" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>258</v>
       </c>
       <c r="I160" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J160" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>258</v>
       </c>
       <c r="I161" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J161" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>258</v>
       </c>
       <c r="I169" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J169" t="inlineStr">
         <is>
@@ -6975,7 +6975,7 @@
         <v>258</v>
       </c>
       <c r="I170" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J170" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>258</v>
       </c>
       <c r="I177" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J177" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>258</v>
       </c>
       <c r="I178" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J178" t="inlineStr">
         <is>
@@ -7323,7 +7323,7 @@
         <v>258</v>
       </c>
       <c r="I179" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J179" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         <v>258</v>
       </c>
       <c r="I180" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J180" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         <v>258</v>
       </c>
       <c r="I181" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J181" t="inlineStr">
         <is>
@@ -7443,7 +7443,7 @@
         <v>258</v>
       </c>
       <c r="I182" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J182" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>258</v>
       </c>
       <c r="I213" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J213" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>258</v>
       </c>
       <c r="I214" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J214" t="inlineStr">
         <is>
@@ -8707,7 +8707,7 @@
         <v>258</v>
       </c>
       <c r="I215" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J215" t="inlineStr">
         <is>
@@ -8747,7 +8747,7 @@
         <v>258</v>
       </c>
       <c r="I216" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J216" t="inlineStr">
         <is>
@@ -8787,7 +8787,7 @@
         <v>258</v>
       </c>
       <c r="I217" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J217" t="inlineStr">
         <is>
@@ -8827,7 +8827,7 @@
         <v>258</v>
       </c>
       <c r="I218" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J218" t="inlineStr">
         <is>
@@ -8867,7 +8867,7 @@
         <v>258</v>
       </c>
       <c r="I219" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J219" t="inlineStr">
         <is>
@@ -8907,7 +8907,7 @@
         <v>258</v>
       </c>
       <c r="I220" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J220" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>258</v>
       </c>
       <c r="I221" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J221" t="inlineStr">
         <is>
@@ -8987,7 +8987,7 @@
         <v>258</v>
       </c>
       <c r="I222" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J222" t="inlineStr">
         <is>
@@ -9027,7 +9027,7 @@
         <v>258</v>
       </c>
       <c r="I223" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J223" t="inlineStr">
         <is>
@@ -9067,7 +9067,7 @@
         <v>258</v>
       </c>
       <c r="I224" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J224" t="inlineStr">
         <is>
@@ -10173,7 +10173,7 @@
         <v>258</v>
       </c>
       <c r="I252" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J252" t="inlineStr">
         <is>
@@ -10293,7 +10293,7 @@
         <v>258</v>
       </c>
       <c r="I255" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J255" t="inlineStr">
         <is>
@@ -10333,7 +10333,7 @@
         <v>258</v>
       </c>
       <c r="I256" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J256" t="inlineStr">
         <is>
@@ -10373,7 +10373,7 @@
         <v>258</v>
       </c>
       <c r="I257" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J257" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>258</v>
       </c>
       <c r="I259" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J259" t="inlineStr">
         <is>
@@ -10533,7 +10533,7 @@
         <v>258</v>
       </c>
       <c r="I261" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J261" t="inlineStr">
         <is>
@@ -10573,7 +10573,7 @@
         <v>258</v>
       </c>
       <c r="I262" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J262" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>258</v>
       </c>
       <c r="I263" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J263" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>258</v>
       </c>
       <c r="I264" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J264" t="inlineStr">
         <is>
@@ -10693,7 +10693,7 @@
         <v>258</v>
       </c>
       <c r="I265" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J265" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>258</v>
       </c>
       <c r="I285" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J285" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>258</v>
       </c>
       <c r="I286" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J286" t="inlineStr">
         <is>
@@ -11647,7 +11647,7 @@
         <v>258</v>
       </c>
       <c r="I289" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J289" t="inlineStr">
         <is>
@@ -11687,7 +11687,7 @@
         <v>258</v>
       </c>
       <c r="I290" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J290" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         <v>258</v>
       </c>
       <c r="I294" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J294" t="inlineStr">
         <is>
@@ -11885,7 +11885,7 @@
         <v>258</v>
       </c>
       <c r="I295" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J295" t="inlineStr">
         <is>
@@ -11965,7 +11965,7 @@
         <v>258</v>
       </c>
       <c r="I297" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J297" t="inlineStr">
         <is>
@@ -12085,7 +12085,7 @@
         <v>258</v>
       </c>
       <c r="I300" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J300" t="inlineStr">
         <is>
@@ -12125,7 +12125,7 @@
         <v>258</v>
       </c>
       <c r="I301" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J301" t="inlineStr">
         <is>
@@ -12165,7 +12165,7 @@
         <v>258</v>
       </c>
       <c r="I302" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J302" t="inlineStr">
         <is>

--- a/generator/data/generated_workers_labels_map.xlsx
+++ b/generator/data/generated_workers_labels_map.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J379"/>
+  <dimension ref="A1:J367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4078,7 +4078,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yes, switched to a different neighbourhood </t>
+          <t xml:space="preserve">Yes, switched to a different neighborhood </t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4116,7 +4116,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Yes, swiched to a new village/city</t>
+          <t>Yes, switched to a new village/city</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4906,12 +4906,12 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Lost job</t>
+          <t>Lost job or self employment</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>रोजगार गुमाउनुपर्यो</t>
+          <t>रोजगार / स्व-रोजगार गुमाउनुपर्यो</t>
         </is>
       </c>
       <c r="E118" t="n">
@@ -4927,7 +4927,7 @@
         <v>258</v>
       </c>
       <c r="I118" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J118" t="inlineStr">
         <is>
@@ -4942,16 +4942,16 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Lost self-employment</t>
+          <t>Took up uninterested job (low self-esteem job)</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>स्व-रोजगार गुमाउनुपर्यो</t>
+          <t>मन नलागेको काम गर्नुपर्यो</t>
         </is>
       </c>
       <c r="E119" t="n">
@@ -4967,11 +4967,11 @@
         <v>258</v>
       </c>
       <c r="I119" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>i_empl_covid_effects__2</t>
+          <t>i_empl_covid_effects__3</t>
         </is>
       </c>
     </row>
@@ -4982,16 +4982,16 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Took up uninterested job (low self-esteem job)</t>
+          <t>Reduced salary</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>मन नलागेको काम गर्नुपर्यो</t>
+          <t>तलब कटौती भयो</t>
         </is>
       </c>
       <c r="E120" t="n">
@@ -5007,11 +5007,11 @@
         <v>258</v>
       </c>
       <c r="I120" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>i_empl_covid_effects__3</t>
+          <t>i_empl_covid_effects__4</t>
         </is>
       </c>
     </row>
@@ -5022,16 +5022,16 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Reduced salary</t>
+          <t>Rotational employment</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>तलब कटौती भयो</t>
+          <t xml:space="preserve">पालो गरेर/कुरेर काम गर्नुपर्यो </t>
         </is>
       </c>
       <c r="E121" t="n">
@@ -5047,11 +5047,11 @@
         <v>258</v>
       </c>
       <c r="I121" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>i_empl_covid_effects__4</t>
+          <t>i_empl_covid_effects__5</t>
         </is>
       </c>
     </row>
@@ -5062,16 +5062,16 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Rotational employment</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t xml:space="preserve">पालो गरेर/कुरेर काम गर्नुपर्यो </t>
+          <t>अन्य समस्या भोग्नुपर्यो</t>
         </is>
       </c>
       <c r="E122" t="n">
@@ -5087,11 +5087,11 @@
         <v>258</v>
       </c>
       <c r="I122" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>i_empl_covid_effects__5</t>
+          <t>i_empl_covid_effects__7</t>
         </is>
       </c>
     </row>
@@ -5102,16 +5102,16 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Couldn't renew licences or permits</t>
+          <t>No effect</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>कामको लागि आवश्यक लाइसेन्स , परमिट  आदि लिन / नवीकारण गर्न पाइएन</t>
+          <t>केहि भोग्नुपरेन</t>
         </is>
       </c>
       <c r="E123" t="n">
@@ -5127,31 +5127,31 @@
         <v>258</v>
       </c>
       <c r="I123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>i_empl_covid_effects__6</t>
+          <t>i_empl_covid_effects__8</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>i_empl_covid_effects</t>
+          <t>i_empl_lst_date_full_salary</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Before COVID-19 lockdown (Before March 2020)</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>अन्य समस्या भोग्नुपर्यो</t>
+          <t>कोभिड-१९ लकडाउन भन्दा पहिले (चैत्र २०७६ भन्दा पहिले)</t>
         </is>
       </c>
       <c r="E124" t="n">
@@ -5167,31 +5167,31 @@
         <v>258</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>i_empl_covid_effects__7</t>
+          <t>i_empl_lst_date_full_salary__1</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>i_empl_covid_effects</t>
+          <t>i_empl_lst_date_full_salary</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>No effect</t>
+          <t>Between March and September 2020</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>केहि भोग्नुपरेन</t>
+          <t>बैशाख देखि असोज २०७७ को बीचमा</t>
         </is>
       </c>
       <c r="E125" t="n">
@@ -5207,11 +5207,11 @@
         <v>258</v>
       </c>
       <c r="I125" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>i_empl_covid_effects__8</t>
+          <t>i_empl_lst_date_full_salary__2</t>
         </is>
       </c>
     </row>
@@ -5222,16 +5222,16 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Before COVID-19 lockdown (Before March 2020)</t>
+          <t>Between October and December 2020</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>कोभिड-१९ लकडाउन भन्दा पहिले (चैत्र २०७६ भन्दा पहिले)</t>
+          <t>कार्तिक देखि पौष २०७७ को बीचमा</t>
         </is>
       </c>
       <c r="E126" t="n">
@@ -5247,11 +5247,11 @@
         <v>258</v>
       </c>
       <c r="I126" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>i_empl_lst_date_full_salary__1</t>
+          <t>i_empl_lst_date_full_salary__3</t>
         </is>
       </c>
     </row>
@@ -5262,16 +5262,16 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Between March and September 2020</t>
+          <t>After December 2021</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>बैशाख देखि असोज २०७७ को बीचमा</t>
+          <t>माघ २०७७ पछि</t>
         </is>
       </c>
       <c r="E127" t="n">
@@ -5287,11 +5287,11 @@
         <v>258</v>
       </c>
       <c r="I127" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>i_empl_lst_date_full_salary__2</t>
+          <t>i_empl_lst_date_full_salary__4</t>
         </is>
       </c>
     </row>
@@ -5302,16 +5302,16 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Between October and December 2020</t>
+          <t>No change due to COVID-19</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>कार्तिक देखि पौष २०७७ को बीचमा</t>
+          <t>मेरो पूर्ण तलब (आम्दानी)मा कोभिड-१९ले कुनै असर नगरेको</t>
         </is>
       </c>
       <c r="E128" t="n">
@@ -5327,31 +5327,31 @@
         <v>258</v>
       </c>
       <c r="I128" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>i_empl_lst_date_full_salary__3</t>
+          <t>i_empl_lst_date_full_salary__5</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>i_empl_lst_date_full_salary</t>
+          <t>i_econ_covid_effects_fin</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>After December 2021</t>
+          <t>Had to take loan from financial institutions</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>माघ २०७७ पछि</t>
+          <t>पैसा सापटी लिनुपर्यो (बैंक वा अन्य वित्तीय संस्थाबाट)</t>
         </is>
       </c>
       <c r="E129" t="n">
@@ -5367,31 +5367,31 @@
         <v>258</v>
       </c>
       <c r="I129" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>i_empl_lst_date_full_salary__4</t>
+          <t>i_econ_covid_effects_fin__1</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>i_empl_lst_date_full_salary</t>
+          <t>i_econ_covid_effects_fin</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>No change due to COVID-19</t>
+          <t>Had to take loan from friends and family</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>मेरो पूर्ण तलब (आम्दानी)मा कोभिड-१९ले कुनै असर नगरेको</t>
+          <t>पैसा सापटी लिनुपर्यो (साथीभाइ वा आफन्तीबाट)</t>
         </is>
       </c>
       <c r="E130" t="n">
@@ -5407,18 +5407,18 @@
         <v>258</v>
       </c>
       <c r="I130" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>i_empl_lst_date_full_salary__5</t>
+          <t>i_econ_covid_effects_fin__2</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>i_econ_covid_effects_fin</t>
+          <t>i_econ_covid_effects_services</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -5426,12 +5426,12 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Had to take loan from financial institutions</t>
+          <t>Stopped education of a family member</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>पैसा सापटी लिनुपर्यो (बैंक वा अन्य वित्तीय संस्थाबाट)</t>
+          <t>परिवारमा कसैको शिक्षा रोक्नुपर्यो</t>
         </is>
       </c>
       <c r="E131" t="n">
@@ -5447,18 +5447,18 @@
         <v>258</v>
       </c>
       <c r="I131" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>i_econ_covid_effects_fin__1</t>
+          <t>i_econ_covid_effects_services__1</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>i_econ_covid_effects_fin</t>
+          <t>i_econ_covid_effects_services</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -5466,12 +5466,12 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Had to take loan from friends and family</t>
+          <t>Stopped health services for family members</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>पैसा सापटी लिनुपर्यो (साथीभाइ वा आफन्तीबाट)</t>
+          <t>परिवारमा कसैको स्वास्थ्य सम्बन्धि सेवा रोक्नुपर्यो</t>
         </is>
       </c>
       <c r="E132" t="n">
@@ -5487,18 +5487,18 @@
         <v>258</v>
       </c>
       <c r="I132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>i_econ_covid_effects_fin__2</t>
+          <t>i_econ_covid_effects_services__2</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>i_econ_covid_effects_services</t>
+          <t>i_econ_covid_effects_assets</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -5506,12 +5506,12 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Stopped education of a family member</t>
+          <t>Sold personal assets</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>परिवारमा कसैको शिक्षा रोक्नुपर्यो</t>
+          <t>गहना, टी.भी., फ्रिज, मोटरसाइकल, गाडी जस्ता सामानहरू बेच्नुपर्यो (घराएसी प्रयोजनको सामान)</t>
         </is>
       </c>
       <c r="E133" t="n">
@@ -5527,18 +5527,18 @@
         <v>258</v>
       </c>
       <c r="I133" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>i_econ_covid_effects_services__1</t>
+          <t>i_econ_covid_effects_assets__1</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>i_econ_covid_effects_services</t>
+          <t>i_econ_covid_effects_assets</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -5546,12 +5546,12 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Stopped health services for family members</t>
+          <t>Sold professional assets, gears, equipments (camera, etc.)</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>परिवारमा कसैको स्वास्थ्य सम्बन्धि सेवा रोक्नुपर्यो</t>
+          <t>आफ्नो रोजगारको लागि आवश्यक पर्ने सामान जस्तै क्यामेरा, आदि बेच्नुपर्यो</t>
         </is>
       </c>
       <c r="E134" t="n">
@@ -5567,11 +5567,11 @@
         <v>258</v>
       </c>
       <c r="I134" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>i_econ_covid_effects_services__2</t>
+          <t>i_econ_covid_effects_assets__2</t>
         </is>
       </c>
     </row>
@@ -5582,16 +5582,16 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Sold personal assets</t>
+          <t>Sold land or property</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>गहना, टी.भी., फ्रिज, मोटरसाइकल, गाडी जस्ता सामानहरू बेच्नुपर्यो (घराएसी प्रयोजनको सामान)</t>
+          <t>घर-जग्गा बेच्नुपर्यो</t>
         </is>
       </c>
       <c r="E135" t="n">
@@ -5607,31 +5607,31 @@
         <v>258</v>
       </c>
       <c r="I135" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>i_econ_covid_effects_assets__1</t>
+          <t>i_econ_covid_effects_assets__3</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>i_econ_covid_effects_assets</t>
+          <t>i_econ_covid_effects</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Sold professional assets, gears, equipments (camera, etc.)</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>आफ्नो रोजगारको लागि आवश्यक पर्ने सामान जस्तै क्यामेरा, आदि बेच्नुपर्यो</t>
+          <t>अन्य समस्या भोग्नुपर्यो</t>
         </is>
       </c>
       <c r="E136" t="n">
@@ -5646,32 +5646,30 @@
       <c r="H136" t="n">
         <v>258</v>
       </c>
-      <c r="I136" t="n">
-        <v>3</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr">
         <is>
-          <t>i_econ_covid_effects_assets__2</t>
+          <t>i_econ_covid_effects__8</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>i_econ_covid_effects_assets</t>
+          <t>i_econ_covid_effects</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Sold land or property</t>
+          <t>No effect</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>घर-जग्गा बेच्नुपर्यो</t>
+          <t>केहि भोग्नुपरेन</t>
         </is>
       </c>
       <c r="E137" t="n">
@@ -5686,32 +5684,30 @@
       <c r="H137" t="n">
         <v>258</v>
       </c>
-      <c r="I137" t="n">
-        <v>2</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr">
         <is>
-          <t>i_econ_covid_effects_assets__3</t>
+          <t>i_econ_covid_effects__9</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>i_econ_covid_effects</t>
+          <t>i_econ_incm_chng_self</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Total income was almost zero</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>अन्य समस्या भोग्नुपर्यो</t>
+          <t>कुल आय लगभग शुन्य (न्यून) भयो</t>
         </is>
       </c>
       <c r="E138" t="n">
@@ -5726,30 +5722,32 @@
       <c r="H138" t="n">
         <v>258</v>
       </c>
-      <c r="I138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>2</v>
+      </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>i_econ_covid_effects__8</t>
+          <t>i_econ_incm_chng_self__1</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>i_econ_covid_effects</t>
+          <t>i_econ_incm_chng_self</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>No effect</t>
+          <t>Total income decreased by 25%</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>केहि भोग्नुपरेन</t>
+          <t>कुल आय एक-चौथाई (२५%)ले घट्यो</t>
         </is>
       </c>
       <c r="E139" t="n">
@@ -5764,10 +5762,12 @@
       <c r="H139" t="n">
         <v>258</v>
       </c>
-      <c r="I139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>3</v>
+      </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>i_econ_covid_effects__9</t>
+          <t>i_econ_incm_chng_self__2</t>
         </is>
       </c>
     </row>
@@ -5778,16 +5778,16 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Total income was almost zero</t>
+          <t>Total income decreased by 50%</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>कुल आय लगभग शुन्य (न्यून) भयो</t>
+          <t>कुल आय आधि (५०%)ले घट्यो</t>
         </is>
       </c>
       <c r="E140" t="n">
@@ -5803,11 +5803,11 @@
         <v>258</v>
       </c>
       <c r="I140" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>i_econ_incm_chng_self__1</t>
+          <t>i_econ_incm_chng_self__3</t>
         </is>
       </c>
     </row>
@@ -5818,16 +5818,16 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Total income decreased by 25%</t>
+          <t>Total income decreased by 75%</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>कुल आय एक-चौथाई (२५%)ले घट्यो</t>
+          <t>कुल आय तीन-चौथाई (७५%)ले घट्यो</t>
         </is>
       </c>
       <c r="E141" t="n">
@@ -5843,11 +5843,11 @@
         <v>258</v>
       </c>
       <c r="I141" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>i_econ_incm_chng_self__2</t>
+          <t>i_econ_incm_chng_self__4</t>
         </is>
       </c>
     </row>
@@ -5858,16 +5858,16 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Total income decreased by 50%</t>
+          <t>Total income was almost same as that of 2019</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>कुल आय आधि (५०%)ले घट्यो</t>
+          <t>कुल आय लगभग उस्तै रह्यो</t>
         </is>
       </c>
       <c r="E142" t="n">
@@ -5883,11 +5883,11 @@
         <v>258</v>
       </c>
       <c r="I142" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>i_econ_incm_chng_self__3</t>
+          <t>i_econ_incm_chng_self__5</t>
         </is>
       </c>
     </row>
@@ -5898,16 +5898,16 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Total income decreased by 75%</t>
+          <t>Total income exceeded that of 2019</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>कुल आय तीन-चौथाई (७५%)ले घट्यो</t>
+          <t>कुल आय बढ्यो</t>
         </is>
       </c>
       <c r="E143" t="n">
@@ -5923,31 +5923,31 @@
         <v>258</v>
       </c>
       <c r="I143" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>i_econ_incm_chng_self__4</t>
+          <t>i_econ_incm_chng_self__6</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>i_econ_incm_chng_self</t>
+          <t>i_mental_hlth_think</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Total income was almost same as that of 2019</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>कुल आय लगभग उस्तै रह्यो</t>
+          <t>छैन</t>
         </is>
       </c>
       <c r="E144" t="n">
@@ -5962,32 +5962,30 @@
       <c r="H144" t="n">
         <v>258</v>
       </c>
-      <c r="I144" t="n">
-        <v>6</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr">
         <is>
-          <t>i_econ_incm_chng_self__5</t>
+          <t>i_mental_hlth_think__1</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>i_econ_incm_chng_self</t>
+          <t>i_mental_hlth_think</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Total income exceeded that of 2019</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>कुल आय बढ्यो</t>
+          <t>छ</t>
         </is>
       </c>
       <c r="E145" t="n">
@@ -6002,19 +6000,17 @@
       <c r="H145" t="n">
         <v>258</v>
       </c>
-      <c r="I145" t="n">
-        <v>7</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr">
         <is>
-          <t>i_econ_incm_chng_self__6</t>
+          <t>i_mental_hlth_think__2</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>i_mental_hlth_think</t>
+          <t>i_mental_hlth_overconcerned</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -6045,14 +6041,14 @@
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr">
         <is>
-          <t>i_mental_hlth_think__1</t>
+          <t>i_mental_hlth_overconcerned__1</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>i_mental_hlth_think</t>
+          <t>i_mental_hlth_overconcerned</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -6083,14 +6079,14 @@
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr">
         <is>
-          <t>i_mental_hlth_think__2</t>
+          <t>i_mental_hlth_overconcerned__2</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>i_mental_hlth_overconcerned</t>
+          <t>i_mental_hlth_detached</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -6121,14 +6117,14 @@
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr">
         <is>
-          <t>i_mental_hlth_overconcerned__1</t>
+          <t>i_mental_hlth_detached__1</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>i_mental_hlth_overconcerned</t>
+          <t>i_mental_hlth_detached</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -6159,14 +6155,14 @@
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr">
         <is>
-          <t>i_mental_hlth_overconcerned__2</t>
+          <t>i_mental_hlth_detached__2</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>i_mental_hlth_detached</t>
+          <t>i_mental_hlth_neg_think</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -6197,14 +6193,14 @@
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr">
         <is>
-          <t>i_mental_hlth_detached__1</t>
+          <t>i_mental_hlth_neg_think__1</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>i_mental_hlth_detached</t>
+          <t>i_mental_hlth_neg_think</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -6235,14 +6231,14 @@
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr">
         <is>
-          <t>i_mental_hlth_detached__2</t>
+          <t>i_mental_hlth_neg_think__2</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>i_mental_hlth_neg_think</t>
+          <t>i_mental_hlth_blame</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -6273,14 +6269,14 @@
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr">
         <is>
-          <t>i_mental_hlth_neg_think__1</t>
+          <t>i_mental_hlth_blame__1</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>i_mental_hlth_neg_think</t>
+          <t>i_mental_hlth_blame</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -6311,14 +6307,14 @@
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr">
         <is>
-          <t>i_mental_hlth_neg_think__2</t>
+          <t>i_mental_hlth_blame__2</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>i_mental_hlth_blame</t>
+          <t>i_mental_hlth_social</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -6349,14 +6345,14 @@
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr">
         <is>
-          <t>i_mental_hlth_blame__1</t>
+          <t>i_mental_hlth_social__1</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>i_mental_hlth_blame</t>
+          <t>i_mental_hlth_social</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -6387,14 +6383,14 @@
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr">
         <is>
-          <t>i_mental_hlth_blame__2</t>
+          <t>i_mental_hlth_social__2</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>i_mental_hlth_social</t>
+          <t>i_mental_hlth_fml</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -6425,14 +6421,14 @@
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr">
         <is>
-          <t>i_mental_hlth_social__1</t>
+          <t>i_mental_hlth_fml__1</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>i_mental_hlth_social</t>
+          <t>i_mental_hlth_fml</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -6463,14 +6459,14 @@
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr">
         <is>
-          <t>i_mental_hlth_social__2</t>
+          <t>i_mental_hlth_fml__2</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>i_mental_hlth_fml</t>
+          <t>i_mental_hlth_therapy</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -6498,17 +6494,19 @@
       <c r="H158" t="n">
         <v>258</v>
       </c>
-      <c r="I158" t="inlineStr"/>
+      <c r="I158" t="n">
+        <v>2</v>
+      </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>i_mental_hlth_fml__1</t>
+          <t>i_mental_hlth_therapy__1</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>i_mental_hlth_fml</t>
+          <t>i_mental_hlth_therapy</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -6536,17 +6534,19 @@
       <c r="H159" t="n">
         <v>258</v>
       </c>
-      <c r="I159" t="inlineStr"/>
+      <c r="I159" t="n">
+        <v>3</v>
+      </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>i_mental_hlth_fml__2</t>
+          <t>i_mental_hlth_therapy__2</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>i_mental_hlth_therapy</t>
+          <t>i_mental_hlth</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -6554,12 +6554,12 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>thought hard about the adverse effects of Covid-19 on livelihood or tried hard to stay away from it</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>छैन</t>
+          <t>जीविकोपार्जनमा कोभिड-१९ को प्रतिकूल प्रभावहरूको बारेमा अत्यधिक सोचें वा यसबाट टाढा रहन कडा प्रयत्न गरेँ</t>
         </is>
       </c>
       <c r="E160" t="n">
@@ -6575,31 +6575,31 @@
         <v>258</v>
       </c>
       <c r="I160" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>i_mental_hlth_therapy__1</t>
+          <t>i_mental_hlth__1</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>i_mental_hlth_therapy</t>
+          <t>i_mental_hlth</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>felt isolated from the surrounding people, activities and environment</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>छ</t>
+          <t>मेरो वरिपरि व्यक्ति, गतिविधिहरू र वातावरणबाट टाढा महसुस भयो</t>
         </is>
       </c>
       <c r="E161" t="n">
@@ -6615,11 +6615,11 @@
         <v>258</v>
       </c>
       <c r="I161" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>i_mental_hlth_therapy__2</t>
+          <t>i_mental_hlth__3</t>
         </is>
       </c>
     </row>
@@ -6630,16 +6630,16 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t xml:space="preserve"> thought hard about the adverse effects of Covid-19 on livelihood or tried hard to stay away from it</t>
+          <t>have/had nightmares about the situation that Covid-19 has brought or could bring about</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>जीविकोपार्जनमा कोभिड-१९ को प्रतिकूल प्रभावहरूको बारेमा अत्यधिक सोचें वा यसबाट टाढा रहन कडा प्रयत्न गरेँ</t>
+          <t>कोभिड-१९  ले ल्याएको वा ल्याउन सक्ने परिस्थितिको बारेमा बढी सोच्ने  वा दुःस्वप्नहरू भयो</t>
         </is>
       </c>
       <c r="E162" t="n">
@@ -6655,11 +6655,11 @@
         <v>258</v>
       </c>
       <c r="I162" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>i_mental_hlth__1</t>
+          <t>i_mental_hlth__4</t>
         </is>
       </c>
     </row>
@@ -6670,36 +6670,36 @@
         </is>
       </c>
       <c r="B163" t="n">
+        <v>5</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>felt guilty about having problems with Covid-19, or blamed self or others for the situation</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>कोभिड-१९  को कारणले समस्या भएकोमा दोषी महसुस गरेँ, वा आफैलाई वा अन्यलाई यो स्थितिको लागि दोष दिए</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>0</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0</v>
+      </c>
+      <c r="H163" t="n">
+        <v>258</v>
+      </c>
+      <c r="I163" t="n">
         <v>2</v>
       </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>felt unnaturally alert, frightened or terrified during these times</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>यी समयमा अप्राकृतिक रूपमा सतर्क, डराएको वा डराएको महसुस भयो</t>
-        </is>
-      </c>
-      <c r="E163" t="n">
-        <v>0</v>
-      </c>
-      <c r="F163" t="n">
-        <v>0</v>
-      </c>
-      <c r="G163" t="n">
-        <v>0</v>
-      </c>
-      <c r="H163" t="n">
-        <v>258</v>
-      </c>
-      <c r="I163" t="n">
-        <v>3</v>
-      </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>i_mental_hlth__2</t>
+          <t>i_mental_hlth__5</t>
         </is>
       </c>
     </row>
@@ -6710,16 +6710,16 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>felt isolated from the people, activities and environment around you</t>
+          <t>felt that family or social pressure has increased due to Covid-19</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>मेरो वरिपरि व्यक्ति, गतिविधिहरू र वातावरणबाट टाढा महसुस भयो</t>
+          <t>कोभिड-१९  को कारणले गर्दा परिवार वा सामाजिक दबाव बढेको महसुस गरे</t>
         </is>
       </c>
       <c r="E164" t="n">
@@ -6739,7 +6739,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>i_mental_hlth__3</t>
+          <t>i_mental_hlth__6</t>
         </is>
       </c>
     </row>
@@ -6750,16 +6750,16 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>have nightmares or to think about the situation that Covid-19 has brought or could bring about</t>
+          <t>felt animosity or strife among family members</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>कोभिड-१९  ले ल्याएको वा ल्याउन सक्ने परिस्थितिको बारेमा बढी सोच्ने  वा दुःस्वप्नहरू भयो</t>
+          <t>परिवारका सदस्यहरूमा वैरभाव वा कलह महसुस गरे</t>
         </is>
       </c>
       <c r="E165" t="n">
@@ -6775,31 +6775,31 @@
         <v>258</v>
       </c>
       <c r="I165" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>i_mental_hlth__4</t>
+          <t>i_mental_hlth__7</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>i_mental_hlth</t>
+          <t>p_econ_altrnt_incm_src_self_fml_flg</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>felt guilty about having problems with Covid-19, or blamed yourself or others for the situation</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>कोभिड-१९  को कारणले समस्या भएकोमा दोषी महसुस गरेँ, वा आफैलाई वा अन्यलाई यो स्थितिको लागि दोष दिए</t>
+          <t>छैन</t>
         </is>
       </c>
       <c r="E166" t="n">
@@ -6819,27 +6819,27 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>i_mental_hlth__5</t>
+          <t>p_econ_altrnt_incm_src_self_fml_flg__1</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>i_mental_hlth</t>
+          <t>p_econ_altrnt_incm_src_self_fml_flg</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>felt that family or social pressure has increased due to Covid-19</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>कोभिड-१९  को कारणले गर्दा परिवार वा सामाजिक दबाव बढेको महसुस गरे</t>
+          <t>छ</t>
         </is>
       </c>
       <c r="E167" t="n">
@@ -6855,31 +6855,31 @@
         <v>258</v>
       </c>
       <c r="I167" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>i_mental_hlth__6</t>
+          <t>p_econ_altrnt_incm_src_self_fml_flg__2</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>i_mental_hlth</t>
+          <t>p_econ_altrnt_incm_src_self_fml</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>felt animosity or strife among family members</t>
+          <t>Agriculture and animal husbandry</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>परिवारका सदस्यहरूमा वैरभाव वा कलह महसुस गरे</t>
+          <t>कृषि तथा पशु पालन</t>
         </is>
       </c>
       <c r="E168" t="n">
@@ -6894,32 +6894,30 @@
       <c r="H168" t="n">
         <v>258</v>
       </c>
-      <c r="I168" t="n">
-        <v>4</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr">
         <is>
-          <t>i_mental_hlth__7</t>
+          <t>p_econ_altrnt_incm_src_self_fml__1</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>p_econ_altrnt_incm_src_self_fml_flg</t>
+          <t>p_econ_altrnt_incm_src_self_fml</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Wages</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>छैन</t>
+          <t>ज्याला/मजदुरी</t>
         </is>
       </c>
       <c r="E169" t="n">
@@ -6934,32 +6932,30 @@
       <c r="H169" t="n">
         <v>258</v>
       </c>
-      <c r="I169" t="n">
-        <v>2</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr">
         <is>
-          <t>p_econ_altrnt_incm_src_self_fml_flg__1</t>
+          <t>p_econ_altrnt_incm_src_self_fml__2</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>p_econ_altrnt_incm_src_self_fml_flg</t>
+          <t>p_econ_altrnt_incm_src_self_fml</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Business / Occupation</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>छ</t>
+          <t>ब्यापार/व्यवसाय</t>
         </is>
       </c>
       <c r="E170" t="n">
@@ -6974,12 +6970,10 @@
       <c r="H170" t="n">
         <v>258</v>
       </c>
-      <c r="I170" t="n">
-        <v>3</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr">
         <is>
-          <t>p_econ_altrnt_incm_src_self_fml_flg__2</t>
+          <t>p_econ_altrnt_incm_src_self_fml__3</t>
         </is>
       </c>
     </row>
@@ -6990,16 +6984,16 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Agriculture and animal husbandry</t>
+          <t>Job / estate</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>कृषि तथा पशु पालन</t>
+          <t>नोकरी/जागीर</t>
         </is>
       </c>
       <c r="E171" t="n">
@@ -7017,7 +7011,7 @@
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr">
         <is>
-          <t>p_econ_altrnt_incm_src_self_fml__1</t>
+          <t>p_econ_altrnt_incm_src_self_fml__4</t>
         </is>
       </c>
     </row>
@@ -7028,16 +7022,16 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Wages</t>
+          <t>Professional work (journalist, lawyer, consultant, contractor, priest, etc.)</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>ज्याला/मजदुरी</t>
+          <t>व्यावसायिक कार्य (पत्रकार, वकिल, परामर्श, ठेक्कापट्टा, पुजारी आदि)</t>
         </is>
       </c>
       <c r="E172" t="n">
@@ -7055,7 +7049,7 @@
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr">
         <is>
-          <t>p_econ_altrnt_incm_src_self_fml__2</t>
+          <t>p_econ_altrnt_incm_src_self_fml__5</t>
         </is>
       </c>
     </row>
@@ -7066,16 +7060,16 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Business / Occupation</t>
+          <t>other</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>ब्यापार/व्यवसाय</t>
+          <t>अन्य</t>
         </is>
       </c>
       <c r="E173" t="n">
@@ -7093,27 +7087,27 @@
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr">
         <is>
-          <t>p_econ_altrnt_incm_src_self_fml__3</t>
+          <t>p_econ_altrnt_incm_src_self_fml__6</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>p_econ_altrnt_incm_src_self_fml</t>
+          <t>p_econ_self_savings_chng_today_v_19</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Job / estate</t>
+          <t>Has stayed the same</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>नोकरी/जागीर</t>
+          <t>लगभग उत्तिकै बाँकी छ</t>
         </is>
       </c>
       <c r="E174" t="n">
@@ -7128,30 +7122,32 @@
       <c r="H174" t="n">
         <v>258</v>
       </c>
-      <c r="I174" t="inlineStr"/>
+      <c r="I174" t="n">
+        <v>2</v>
+      </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>p_econ_altrnt_incm_src_self_fml__4</t>
+          <t>p_econ_self_savings_chng_today_v_19__1</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>p_econ_altrnt_incm_src_self_fml</t>
+          <t>p_econ_self_savings_chng_today_v_19</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Professional work (journalist, lawyer, consultant, contractor, priest, etc.)</t>
+          <t>75% remaining</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>व्यावसायिक कार्य (पत्रकार, वकिल, परामर्श, ठेक्कापट्टा, पुजारी आदि)</t>
+          <t>तीन-चौथाई (७५%) बाँकी छ</t>
         </is>
       </c>
       <c r="E175" t="n">
@@ -7166,30 +7162,32 @@
       <c r="H175" t="n">
         <v>258</v>
       </c>
-      <c r="I175" t="inlineStr"/>
+      <c r="I175" t="n">
+        <v>3</v>
+      </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>p_econ_altrnt_incm_src_self_fml__5</t>
+          <t>p_econ_self_savings_chng_today_v_19__2</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>p_econ_altrnt_incm_src_self_fml</t>
+          <t>p_econ_self_savings_chng_today_v_19</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>50% remaining</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>अन्य</t>
+          <t>आधि (५०%) बाँकी छ</t>
         </is>
       </c>
       <c r="E176" t="n">
@@ -7204,10 +7202,12 @@
       <c r="H176" t="n">
         <v>258</v>
       </c>
-      <c r="I176" t="inlineStr"/>
+      <c r="I176" t="n">
+        <v>4</v>
+      </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>p_econ_altrnt_incm_src_self_fml__6</t>
+          <t>p_econ_self_savings_chng_today_v_19__3</t>
         </is>
       </c>
     </row>
@@ -7218,16 +7218,16 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Has stayed the same</t>
+          <t>25% remaining</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>लगभग उत्तिकै बाँकी छ</t>
+          <t>एक-चौथाई (२५%) बाँकी छ</t>
         </is>
       </c>
       <c r="E177" t="n">
@@ -7243,11 +7243,11 @@
         <v>258</v>
       </c>
       <c r="I177" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>p_econ_self_savings_chng_today_v_19__1</t>
+          <t>p_econ_self_savings_chng_today_v_19__4</t>
         </is>
       </c>
     </row>
@@ -7258,16 +7258,16 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>75% remaining</t>
+          <t>Has reduced to almost zero</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>तीन-चौथाई (७५%) बाँकी छ</t>
+          <t>लगभग शुन्य बाँकी छ</t>
         </is>
       </c>
       <c r="E178" t="n">
@@ -7283,11 +7283,11 @@
         <v>258</v>
       </c>
       <c r="I178" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>p_econ_self_savings_chng_today_v_19__2</t>
+          <t>p_econ_self_savings_chng_today_v_19__5</t>
         </is>
       </c>
     </row>
@@ -7298,16 +7298,16 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>50% remaining</t>
+          <t>Has grown compared to 2019</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>आधि (५०%) बाँकी छ</t>
+          <t>बचत बढेको छ</t>
         </is>
       </c>
       <c r="E179" t="n">
@@ -7323,31 +7323,31 @@
         <v>258</v>
       </c>
       <c r="I179" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>p_econ_self_savings_chng_today_v_19__3</t>
+          <t>p_econ_self_savings_chng_today_v_19__6</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>p_econ_self_savings_chng_today_v_19</t>
+          <t>p_econ_hhd_items_pre_covid</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>25% remaining</t>
+          <t>Land</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>एक-चौथाई (२५%) बाँकी छ</t>
+          <t>जग्गा / जमिन</t>
         </is>
       </c>
       <c r="E180" t="n">
@@ -7362,32 +7362,30 @@
       <c r="H180" t="n">
         <v>258</v>
       </c>
-      <c r="I180" t="n">
-        <v>5</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr">
         <is>
-          <t>p_econ_self_savings_chng_today_v_19__4</t>
+          <t>p_econ_hhd_items_pre_covid__1</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>p_econ_self_savings_chng_today_v_19</t>
+          <t>p_econ_hhd_items_pre_covid</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Has reduced to almost zero</t>
+          <t>Television</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>लगभग शुन्य बाँकी छ</t>
+          <t>टेलिभिजन</t>
         </is>
       </c>
       <c r="E181" t="n">
@@ -7402,32 +7400,30 @@
       <c r="H181" t="n">
         <v>258</v>
       </c>
-      <c r="I181" t="n">
-        <v>6</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr">
         <is>
-          <t>p_econ_self_savings_chng_today_v_19__5</t>
+          <t>p_econ_hhd_items_pre_covid__2</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>p_econ_self_savings_chng_today_v_19</t>
+          <t>p_econ_hhd_items_pre_covid</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Has grown compared to 2019</t>
+          <t>Cable TV connection</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>बचत बढेको छ</t>
+          <t>केबुल टेलिभिजन</t>
         </is>
       </c>
       <c r="E182" t="n">
@@ -7442,12 +7438,10 @@
       <c r="H182" t="n">
         <v>258</v>
       </c>
-      <c r="I182" t="n">
-        <v>7</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr">
         <is>
-          <t>p_econ_self_savings_chng_today_v_19__6</t>
+          <t>p_econ_hhd_items_pre_covid__3</t>
         </is>
       </c>
     </row>
@@ -7458,16 +7452,16 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Land</t>
+          <t>Computer / laptop</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>जग्गा / जमिन</t>
+          <t>कम्प्युटर / ल्याप्टप</t>
         </is>
       </c>
       <c r="E183" t="n">
@@ -7485,7 +7479,7 @@
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr">
         <is>
-          <t>p_econ_hhd_items_pre_covid__1</t>
+          <t>p_econ_hhd_items_pre_covid__4</t>
         </is>
       </c>
     </row>
@@ -7496,16 +7490,16 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Television</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>टेलिभिजन</t>
+          <t>इन्टरनेट</t>
         </is>
       </c>
       <c r="E184" t="n">
@@ -7523,7 +7517,7 @@
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr">
         <is>
-          <t>p_econ_hhd_items_pre_covid__2</t>
+          <t>p_econ_hhd_items_pre_covid__5</t>
         </is>
       </c>
     </row>
@@ -7534,16 +7528,16 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Cable TV connection</t>
+          <t>Telephone</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>केबुल टेलिभिजन</t>
+          <t>टेलिफोन</t>
         </is>
       </c>
       <c r="E185" t="n">
@@ -7561,7 +7555,7 @@
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr">
         <is>
-          <t>p_econ_hhd_items_pre_covid__3</t>
+          <t>p_econ_hhd_items_pre_covid__6</t>
         </is>
       </c>
     </row>
@@ -7572,16 +7566,16 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Computer / laptop</t>
+          <t>Mobile phone</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>कम्प्युटर / ल्याप्टप</t>
+          <t>मोबाइल फोन</t>
         </is>
       </c>
       <c r="E186" t="n">
@@ -7599,7 +7593,7 @@
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr">
         <is>
-          <t>p_econ_hhd_items_pre_covid__4</t>
+          <t>p_econ_hhd_items_pre_covid__7</t>
         </is>
       </c>
     </row>
@@ -7610,16 +7604,16 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Refrigerator</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>इन्टरनेट</t>
+          <t>रेफ्रीजरेटर</t>
         </is>
       </c>
       <c r="E187" t="n">
@@ -7637,7 +7631,7 @@
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr">
         <is>
-          <t>p_econ_hhd_items_pre_covid__5</t>
+          <t>p_econ_hhd_items_pre_covid__8</t>
         </is>
       </c>
     </row>
@@ -7648,16 +7642,16 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Telephone</t>
+          <t>Motorcycle</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>टेलिफोन</t>
+          <t>मोटरसाइकल</t>
         </is>
       </c>
       <c r="E188" t="n">
@@ -7675,7 +7669,7 @@
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr">
         <is>
-          <t>p_econ_hhd_items_pre_covid__6</t>
+          <t>p_econ_hhd_items_pre_covid__9</t>
         </is>
       </c>
     </row>
@@ -7686,16 +7680,16 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Mobile phone</t>
+          <t>Four wheeler for self/family use</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>मोबाइल फोन</t>
+          <t>पारिवारिक प्रयोजनको चार पांग्रे मोटर/सवारी साधन</t>
         </is>
       </c>
       <c r="E189" t="n">
@@ -7713,7 +7707,7 @@
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr">
         <is>
-          <t>p_econ_hhd_items_pre_covid__7</t>
+          <t>p_econ_hhd_items_pre_covid__10</t>
         </is>
       </c>
     </row>
@@ -7724,16 +7718,16 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Refrigerator</t>
+          <t>Four wheeler for commercial use</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>रेफ्रीजरेटर</t>
+          <t>व्यावसायिक प्रयोजनको चार पांग्रे मोटर/सवारी साधन</t>
         </is>
       </c>
       <c r="E190" t="n">
@@ -7751,7 +7745,7 @@
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr">
         <is>
-          <t>p_econ_hhd_items_pre_covid__8</t>
+          <t>p_econ_hhd_items_pre_covid__11</t>
         </is>
       </c>
     </row>
@@ -7762,16 +7756,16 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Motorcycle</t>
+          <t>None of the above</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>मोटरसाइकल</t>
+          <t>माथिका कुनै पनि सुविधाहरू नभएको</t>
         </is>
       </c>
       <c r="E191" t="n">
@@ -7789,27 +7783,27 @@
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr">
         <is>
-          <t>p_econ_hhd_items_pre_covid__9</t>
+          <t>p_econ_hhd_items_pre_covid__12</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>p_econ_hhd_items_pre_covid</t>
+          <t>p_econ_hhd_items_post_covid</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Four wheeler for self/family use</t>
+          <t>Land</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>पारिवारिक प्रयोजनको चार पांग्रे मोटर/सवारी साधन</t>
+          <t>जग्गा / जमिन</t>
         </is>
       </c>
       <c r="E192" t="n">
@@ -7827,27 +7821,27 @@
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr">
         <is>
-          <t>p_econ_hhd_items_pre_covid__10</t>
+          <t>p_econ_hhd_items_post_covid__1</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>p_econ_hhd_items_pre_covid</t>
+          <t>p_econ_hhd_items_post_covid</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Four wheeler for commercial use</t>
+          <t>Television</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>व्यावसायिक प्रयोजनको चार पांग्रे मोटर/सवारी साधन</t>
+          <t>टेलिभिजन</t>
         </is>
       </c>
       <c r="E193" t="n">
@@ -7865,27 +7859,27 @@
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr">
         <is>
-          <t>p_econ_hhd_items_pre_covid__11</t>
+          <t>p_econ_hhd_items_post_covid__2</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>p_econ_hhd_items_pre_covid</t>
+          <t>p_econ_hhd_items_post_covid</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>None of the above</t>
+          <t>Cable TV connection</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>माथिका कुनै पनि सुविधाहरू नभएको</t>
+          <t>केबुल टेलिभिजन</t>
         </is>
       </c>
       <c r="E194" t="n">
@@ -7903,7 +7897,7 @@
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr">
         <is>
-          <t>p_econ_hhd_items_pre_covid__12</t>
+          <t>p_econ_hhd_items_post_covid__3</t>
         </is>
       </c>
     </row>
@@ -7914,16 +7908,16 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Land</t>
+          <t>Computer / laptop</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>जग्गा / जमिन</t>
+          <t>कम्प्युटर / ल्याप्टप</t>
         </is>
       </c>
       <c r="E195" t="n">
@@ -7941,7 +7935,7 @@
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr">
         <is>
-          <t>p_econ_hhd_items_post_covid__1</t>
+          <t>p_econ_hhd_items_post_covid__4</t>
         </is>
       </c>
     </row>
@@ -7952,16 +7946,16 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Television</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>टेलिभिजन</t>
+          <t>इन्टरनेट</t>
         </is>
       </c>
       <c r="E196" t="n">
@@ -7979,7 +7973,7 @@
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr">
         <is>
-          <t>p_econ_hhd_items_post_covid__2</t>
+          <t>p_econ_hhd_items_post_covid__5</t>
         </is>
       </c>
     </row>
@@ -7990,16 +7984,16 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Cable TV connection</t>
+          <t>Telephone</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>केबुल टेलिभिजन</t>
+          <t>टेलिफोन</t>
         </is>
       </c>
       <c r="E197" t="n">
@@ -8017,7 +8011,7 @@
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr">
         <is>
-          <t>p_econ_hhd_items_post_covid__3</t>
+          <t>p_econ_hhd_items_post_covid__6</t>
         </is>
       </c>
     </row>
@@ -8028,16 +8022,16 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Computer / laptop</t>
+          <t>Mobile phone</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>कम्प्युटर / ल्याप्टप</t>
+          <t>मोबाइल फोन</t>
         </is>
       </c>
       <c r="E198" t="n">
@@ -8055,7 +8049,7 @@
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr">
         <is>
-          <t>p_econ_hhd_items_post_covid__4</t>
+          <t>p_econ_hhd_items_post_covid__7</t>
         </is>
       </c>
     </row>
@@ -8066,16 +8060,16 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>Refrigerator</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>इन्टरनेट</t>
+          <t>रेफ्रीजरेटर</t>
         </is>
       </c>
       <c r="E199" t="n">
@@ -8093,7 +8087,7 @@
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr">
         <is>
-          <t>p_econ_hhd_items_post_covid__5</t>
+          <t>p_econ_hhd_items_post_covid__8</t>
         </is>
       </c>
     </row>
@@ -8104,16 +8098,16 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Telephone</t>
+          <t>Motorcycle</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>टेलिफोन</t>
+          <t>मोटरसाइकल</t>
         </is>
       </c>
       <c r="E200" t="n">
@@ -8131,7 +8125,7 @@
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr">
         <is>
-          <t>p_econ_hhd_items_post_covid__6</t>
+          <t>p_econ_hhd_items_post_covid__9</t>
         </is>
       </c>
     </row>
@@ -8142,16 +8136,16 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Mobile phone</t>
+          <t>Four wheeler for self/family use</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>मोबाइल फोन</t>
+          <t>पारिवारिक प्रयोजनको चार पांग्रे मोटर/सवारी साधन</t>
         </is>
       </c>
       <c r="E201" t="n">
@@ -8169,7 +8163,7 @@
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr">
         <is>
-          <t>p_econ_hhd_items_post_covid__7</t>
+          <t>p_econ_hhd_items_post_covid__10</t>
         </is>
       </c>
     </row>
@@ -8180,16 +8174,16 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Refrigerator</t>
+          <t>Four wheeler for commercial use</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>रेफ्रीजरेटर</t>
+          <t>व्यावसायिक प्रयोजनको चार पांग्रे मोटर/सवारी साधन</t>
         </is>
       </c>
       <c r="E202" t="n">
@@ -8207,7 +8201,7 @@
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr">
         <is>
-          <t>p_econ_hhd_items_post_covid__8</t>
+          <t>p_econ_hhd_items_post_covid__11</t>
         </is>
       </c>
     </row>
@@ -8218,16 +8212,16 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Motorcycle</t>
+          <t>None of the above</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>मोटरसाइकल</t>
+          <t>माथिका कुनै पनि सुविधाहरू नभएको</t>
         </is>
       </c>
       <c r="E203" t="n">
@@ -8245,27 +8239,27 @@
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr">
         <is>
-          <t>p_econ_hhd_items_post_covid__9</t>
+          <t>p_econ_hhd_items_post_covid__12</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>p_econ_hhd_items_post_covid</t>
+          <t>p_econ_outstndng_loans_self</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Four wheeler for self/family use</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>पारिवारिक प्रयोजनको चार पांग्रे मोटर/सवारी साधन</t>
+          <t>छैन</t>
         </is>
       </c>
       <c r="E204" t="n">
@@ -8280,30 +8274,32 @@
       <c r="H204" t="n">
         <v>258</v>
       </c>
-      <c r="I204" t="inlineStr"/>
+      <c r="I204" t="n">
+        <v>2</v>
+      </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>p_econ_hhd_items_post_covid__10</t>
+          <t>p_econ_outstndng_loans_self__1</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>p_econ_hhd_items_post_covid</t>
+          <t>p_econ_outstndng_loans_self</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Four wheeler for commercial use</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>व्यावसायिक प्रयोजनको चार पांग्रे मोटर/सवारी साधन</t>
+          <t>छ</t>
         </is>
       </c>
       <c r="E205" t="n">
@@ -8318,30 +8314,32 @@
       <c r="H205" t="n">
         <v>258</v>
       </c>
-      <c r="I205" t="inlineStr"/>
+      <c r="I205" t="n">
+        <v>3</v>
+      </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>p_econ_hhd_items_post_covid__11</t>
+          <t>p_econ_outstndng_loans_self__2</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>p_econ_hhd_items_post_covid</t>
+          <t>p_lvlhd_num_depndnt_fml_membrs_pre_covid</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>None of the above</t>
+          <t>Only me</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>माथिका कुनै पनि सुविधाहरू नभएको</t>
+          <t>१ जना (म मात्रै)</t>
         </is>
       </c>
       <c r="E206" t="n">
@@ -8359,27 +8357,27 @@
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr">
         <is>
-          <t>p_econ_hhd_items_post_covid__12</t>
+          <t>p_lvlhd_num_depndnt_fml_membrs_pre_covid__1</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>p_econ_outstndng_loans_self</t>
+          <t>p_lvlhd_num_depndnt_fml_membrs_pre_covid</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>2 people</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>छैन</t>
+          <t>२ जना</t>
         </is>
       </c>
       <c r="E207" t="n">
@@ -8394,32 +8392,30 @@
       <c r="H207" t="n">
         <v>258</v>
       </c>
-      <c r="I207" t="n">
-        <v>2</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr">
         <is>
-          <t>p_econ_outstndng_loans_self__1</t>
+          <t>p_lvlhd_num_depndnt_fml_membrs_pre_covid__2</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>p_econ_outstndng_loans_self</t>
+          <t>p_lvlhd_num_depndnt_fml_membrs_pre_covid</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>3 to 5 people</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>छ</t>
+          <t>३-५ जना</t>
         </is>
       </c>
       <c r="E208" t="n">
@@ -8434,12 +8430,10 @@
       <c r="H208" t="n">
         <v>258</v>
       </c>
-      <c r="I208" t="n">
-        <v>3</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr">
         <is>
-          <t>p_econ_outstndng_loans_self__2</t>
+          <t>p_lvlhd_num_depndnt_fml_membrs_pre_covid__3</t>
         </is>
       </c>
     </row>
@@ -8450,16 +8444,16 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Only me</t>
+          <t>6 people or more</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>१ जना (म मात्रै)</t>
+          <t>५ जना भन्दा बढी</t>
         </is>
       </c>
       <c r="E209" t="n">
@@ -8477,121 +8471,127 @@
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr">
         <is>
-          <t>p_lvlhd_num_depndnt_fml_membrs_pre_covid__1</t>
+          <t>p_lvlhd_num_depndnt_fml_membrs_pre_covid__4</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>p_lvlhd_num_depndnt_fml_membrs_pre_covid</t>
+          <t>p_lvlhd_num_depndnt_fml_membrs_post_covid</t>
         </is>
       </c>
       <c r="B210" t="n">
+        <v>1</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Only me</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>१ जना (म मात्रै)</t>
+        </is>
+      </c>
+      <c r="E210" t="n">
+        <v>0</v>
+      </c>
+      <c r="F210" t="n">
+        <v>0</v>
+      </c>
+      <c r="G210" t="n">
+        <v>0</v>
+      </c>
+      <c r="H210" t="n">
+        <v>258</v>
+      </c>
+      <c r="I210" t="n">
         <v>2</v>
       </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>2 people</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>२ जना</t>
-        </is>
-      </c>
-      <c r="E210" t="n">
-        <v>0</v>
-      </c>
-      <c r="F210" t="n">
-        <v>0</v>
-      </c>
-      <c r="G210" t="n">
-        <v>0</v>
-      </c>
-      <c r="H210" t="n">
-        <v>258</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr">
         <is>
-          <t>p_lvlhd_num_depndnt_fml_membrs_pre_covid__2</t>
+          <t>p_lvlhd_num_depndnt_fml_membrs_post_covid__1</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>p_lvlhd_num_depndnt_fml_membrs_pre_covid</t>
+          <t>p_lvlhd_num_depndnt_fml_membrs_post_covid</t>
         </is>
       </c>
       <c r="B211" t="n">
+        <v>2</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>2 people</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>२ जना</t>
+        </is>
+      </c>
+      <c r="E211" t="n">
+        <v>0</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0</v>
+      </c>
+      <c r="G211" t="n">
+        <v>0</v>
+      </c>
+      <c r="H211" t="n">
+        <v>258</v>
+      </c>
+      <c r="I211" t="n">
         <v>3</v>
       </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>3 to 5 people</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>३-५ जना</t>
-        </is>
-      </c>
-      <c r="E211" t="n">
-        <v>0</v>
-      </c>
-      <c r="F211" t="n">
-        <v>0</v>
-      </c>
-      <c r="G211" t="n">
-        <v>0</v>
-      </c>
-      <c r="H211" t="n">
-        <v>258</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr">
         <is>
-          <t>p_lvlhd_num_depndnt_fml_membrs_pre_covid__3</t>
+          <t>p_lvlhd_num_depndnt_fml_membrs_post_covid__2</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>p_lvlhd_num_depndnt_fml_membrs_pre_covid</t>
+          <t>p_lvlhd_num_depndnt_fml_membrs_post_covid</t>
         </is>
       </c>
       <c r="B212" t="n">
+        <v>3</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>3 to 5 people</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>३-५ जना</t>
+        </is>
+      </c>
+      <c r="E212" t="n">
+        <v>0</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0</v>
+      </c>
+      <c r="G212" t="n">
+        <v>0</v>
+      </c>
+      <c r="H212" t="n">
+        <v>258</v>
+      </c>
+      <c r="I212" t="n">
         <v>4</v>
       </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>6 people or more</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>५ जना भन्दा बढी</t>
-        </is>
-      </c>
-      <c r="E212" t="n">
-        <v>0</v>
-      </c>
-      <c r="F212" t="n">
-        <v>0</v>
-      </c>
-      <c r="G212" t="n">
-        <v>0</v>
-      </c>
-      <c r="H212" t="n">
-        <v>258</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr">
         <is>
-          <t>p_lvlhd_num_depndnt_fml_membrs_pre_covid__4</t>
+          <t>p_lvlhd_num_depndnt_fml_membrs_post_covid__3</t>
         </is>
       </c>
     </row>
@@ -8602,16 +8602,16 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Only me</t>
+          <t>6 people or more</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>१ जना (म मात्रै)</t>
+          <t>५ जना भन्दा बढी</t>
         </is>
       </c>
       <c r="E213" t="n">
@@ -8627,131 +8627,131 @@
         <v>258</v>
       </c>
       <c r="I213" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>p_lvlhd_num_depndnt_fml_membrs_post_covid__1</t>
+          <t>p_lvlhd_num_depndnt_fml_membrs_post_covid__4</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>p_lvlhd_num_depndnt_fml_membrs_post_covid</t>
+          <t>p_lvlhd_num_depndnt_need_fml_membrs_post_covid</t>
         </is>
       </c>
       <c r="B214" t="n">
+        <v>1</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Not sufficient for myself</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>शुन्य (०) जना</t>
+        </is>
+      </c>
+      <c r="E214" t="n">
+        <v>0</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0</v>
+      </c>
+      <c r="G214" t="n">
+        <v>0</v>
+      </c>
+      <c r="H214" t="n">
+        <v>258</v>
+      </c>
+      <c r="I214" t="n">
         <v>2</v>
       </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>2 people</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>२ जना</t>
-        </is>
-      </c>
-      <c r="E214" t="n">
-        <v>0</v>
-      </c>
-      <c r="F214" t="n">
-        <v>0</v>
-      </c>
-      <c r="G214" t="n">
-        <v>0</v>
-      </c>
-      <c r="H214" t="n">
-        <v>258</v>
-      </c>
-      <c r="I214" t="n">
-        <v>3</v>
-      </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>p_lvlhd_num_depndnt_fml_membrs_post_covid__2</t>
+          <t>p_lvlhd_num_depndnt_need_fml_membrs_post_covid__1</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>p_lvlhd_num_depndnt_fml_membrs_post_covid</t>
+          <t>p_lvlhd_num_depndnt_need_fml_membrs_post_covid</t>
         </is>
       </c>
       <c r="B215" t="n">
+        <v>2</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>1 to 2 people</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>१-२ जना</t>
+        </is>
+      </c>
+      <c r="E215" t="n">
+        <v>0</v>
+      </c>
+      <c r="F215" t="n">
+        <v>0</v>
+      </c>
+      <c r="G215" t="n">
+        <v>0</v>
+      </c>
+      <c r="H215" t="n">
+        <v>258</v>
+      </c>
+      <c r="I215" t="n">
         <v>3</v>
       </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>3 to 5 people</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>३-५ जना</t>
-        </is>
-      </c>
-      <c r="E215" t="n">
-        <v>0</v>
-      </c>
-      <c r="F215" t="n">
-        <v>0</v>
-      </c>
-      <c r="G215" t="n">
-        <v>0</v>
-      </c>
-      <c r="H215" t="n">
-        <v>258</v>
-      </c>
-      <c r="I215" t="n">
-        <v>4</v>
-      </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>p_lvlhd_num_depndnt_fml_membrs_post_covid__3</t>
+          <t>p_lvlhd_num_depndnt_need_fml_membrs_post_covid__2</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>p_lvlhd_num_depndnt_fml_membrs_post_covid</t>
+          <t>p_lvlhd_num_depndnt_need_fml_membrs_post_covid</t>
         </is>
       </c>
       <c r="B216" t="n">
+        <v>3</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>3 to 5 people</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>३-५ जना</t>
+        </is>
+      </c>
+      <c r="E216" t="n">
+        <v>0</v>
+      </c>
+      <c r="F216" t="n">
+        <v>0</v>
+      </c>
+      <c r="G216" t="n">
+        <v>0</v>
+      </c>
+      <c r="H216" t="n">
+        <v>258</v>
+      </c>
+      <c r="I216" t="n">
         <v>4</v>
       </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>6 people or more</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>५ जना भन्दा बढी</t>
-        </is>
-      </c>
-      <c r="E216" t="n">
-        <v>0</v>
-      </c>
-      <c r="F216" t="n">
-        <v>0</v>
-      </c>
-      <c r="G216" t="n">
-        <v>0</v>
-      </c>
-      <c r="H216" t="n">
-        <v>258</v>
-      </c>
-      <c r="I216" t="n">
-        <v>5</v>
-      </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>p_lvlhd_num_depndnt_fml_membrs_post_covid__4</t>
+          <t>p_lvlhd_num_depndnt_need_fml_membrs_post_covid__3</t>
         </is>
       </c>
     </row>
@@ -8762,16 +8762,16 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Not sufficient for myself</t>
+          <t>6 people or more</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>शुन्य (०) जना</t>
+          <t>५ जना भन्दा बढी</t>
         </is>
       </c>
       <c r="E217" t="n">
@@ -8787,111 +8787,111 @@
         <v>258</v>
       </c>
       <c r="I217" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>p_lvlhd_num_depndnt_need_fml_membrs_post_covid__1</t>
+          <t>p_lvlhd_num_depndnt_need_fml_membrs_post_covid__4</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>p_lvlhd_num_depndnt_need_fml_membrs_post_covid</t>
+          <t>p_hlth_vaccinated_self</t>
         </is>
       </c>
       <c r="B218" t="n">
+        <v>1</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>छैन</t>
+        </is>
+      </c>
+      <c r="E218" t="n">
+        <v>0</v>
+      </c>
+      <c r="F218" t="n">
+        <v>0</v>
+      </c>
+      <c r="G218" t="n">
+        <v>0</v>
+      </c>
+      <c r="H218" t="n">
+        <v>258</v>
+      </c>
+      <c r="I218" t="n">
         <v>2</v>
       </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>1 to 2 people</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>१-२ जना</t>
-        </is>
-      </c>
-      <c r="E218" t="n">
-        <v>0</v>
-      </c>
-      <c r="F218" t="n">
-        <v>0</v>
-      </c>
-      <c r="G218" t="n">
-        <v>0</v>
-      </c>
-      <c r="H218" t="n">
-        <v>258</v>
-      </c>
-      <c r="I218" t="n">
-        <v>3</v>
-      </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>p_lvlhd_num_depndnt_need_fml_membrs_post_covid__2</t>
+          <t>p_hlth_vaccinated_self__1</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>p_lvlhd_num_depndnt_need_fml_membrs_post_covid</t>
+          <t>p_hlth_vaccinated_self</t>
         </is>
       </c>
       <c r="B219" t="n">
+        <v>2</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>छ</t>
+        </is>
+      </c>
+      <c r="E219" t="n">
+        <v>0</v>
+      </c>
+      <c r="F219" t="n">
+        <v>0</v>
+      </c>
+      <c r="G219" t="n">
+        <v>0</v>
+      </c>
+      <c r="H219" t="n">
+        <v>258</v>
+      </c>
+      <c r="I219" t="n">
         <v>3</v>
       </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>3 to 5 people</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>३-५ जना</t>
-        </is>
-      </c>
-      <c r="E219" t="n">
-        <v>0</v>
-      </c>
-      <c r="F219" t="n">
-        <v>0</v>
-      </c>
-      <c r="G219" t="n">
-        <v>0</v>
-      </c>
-      <c r="H219" t="n">
-        <v>258</v>
-      </c>
-      <c r="I219" t="n">
-        <v>4</v>
-      </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>p_lvlhd_num_depndnt_need_fml_membrs_post_covid__3</t>
+          <t>p_hlth_vaccinated_self__2</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>p_lvlhd_num_depndnt_need_fml_membrs_post_covid</t>
+          <t>p_hlth_received_hhs_training_self</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>6 people or more</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>५ जना भन्दा बढी</t>
+          <t>छैन</t>
         </is>
       </c>
       <c r="E220" t="n">
@@ -8907,31 +8907,31 @@
         <v>258</v>
       </c>
       <c r="I220" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>p_lvlhd_num_depndnt_need_fml_membrs_post_covid__4</t>
+          <t>p_hlth_received_hhs_training_self__1</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>p_hlth_vaccinated_self</t>
+          <t>p_hlth_received_hhs_training_self</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>छैन</t>
+          <t>छ</t>
         </is>
       </c>
       <c r="E221" t="n">
@@ -8947,31 +8947,31 @@
         <v>258</v>
       </c>
       <c r="I221" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>p_hlth_vaccinated_self__1</t>
+          <t>p_hlth_received_hhs_training_self__2</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>p_hlth_vaccinated_self</t>
+          <t>p_hlth_hhs_training_src</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Government</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>छ</t>
+          <t>सरकारी निकायबाट</t>
         </is>
       </c>
       <c r="E222" t="n">
@@ -8986,32 +8986,30 @@
       <c r="H222" t="n">
         <v>258</v>
       </c>
-      <c r="I222" t="n">
-        <v>3</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr">
         <is>
-          <t>p_hlth_vaccinated_self__2</t>
+          <t>p_hlth_hhs_training_src__1</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>p_hlth_received_hhs_training_self</t>
+          <t>p_hlth_hhs_training_src</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>NGO</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>छैन</t>
+          <t>गैर-सरकारी संघ-संस्थाबाट</t>
         </is>
       </c>
       <c r="E223" t="n">
@@ -9026,32 +9024,30 @@
       <c r="H223" t="n">
         <v>258</v>
       </c>
-      <c r="I223" t="n">
-        <v>2</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr">
         <is>
-          <t>p_hlth_received_hhs_training_self__1</t>
+          <t>p_hlth_hhs_training_src__2</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>p_hlth_received_hhs_training_self</t>
+          <t>p_hlth_hhs_training_src</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Employer</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>छ</t>
+          <t>रोजगारदाताबाट</t>
         </is>
       </c>
       <c r="E224" t="n">
@@ -9066,12 +9062,10 @@
       <c r="H224" t="n">
         <v>258</v>
       </c>
-      <c r="I224" t="n">
-        <v>3</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr">
         <is>
-          <t>p_hlth_received_hhs_training_self__2</t>
+          <t>p_hlth_hhs_training_src__3</t>
         </is>
       </c>
     </row>
@@ -9082,16 +9076,16 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Government</t>
+          <t>Hotel / workers associations</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>सरकारी निकायबाट</t>
+          <t>पर्यटकीय संघ-संस्थाबाट</t>
         </is>
       </c>
       <c r="E225" t="n">
@@ -9109,7 +9103,7 @@
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr">
         <is>
-          <t>p_hlth_hhs_training_src__1</t>
+          <t>p_hlth_hhs_training_src__4</t>
         </is>
       </c>
     </row>
@@ -9120,16 +9114,16 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>NGO</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>गैर-सरकारी संघ-संस्थाबाट</t>
+          <t>अन्य</t>
         </is>
       </c>
       <c r="E226" t="n">
@@ -9147,27 +9141,27 @@
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr">
         <is>
-          <t>p_hlth_hhs_training_src__2</t>
+          <t>p_hlth_hhs_training_src__5</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>p_hlth_hhs_training_src</t>
+          <t>p_hlth_info_covid_src</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Employer</t>
+          <t>Family and friends</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>रोजगारदाताबाट</t>
+          <t>परिवार जन तथा छिमेकी</t>
         </is>
       </c>
       <c r="E227" t="n">
@@ -9182,30 +9176,32 @@
       <c r="H227" t="n">
         <v>258</v>
       </c>
-      <c r="I227" t="inlineStr"/>
+      <c r="I227" t="n">
+        <v>4</v>
+      </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>p_hlth_hhs_training_src__3</t>
+          <t>p_hlth_info_covid_src__1</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>p_hlth_hhs_training_src</t>
+          <t>p_hlth_info_covid_src</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Hotel / workers associations</t>
+          <t>Social media</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>पर्यटकीय संघ-संस्थाबाट</t>
+          <t>सामाजिक संजाल</t>
         </is>
       </c>
       <c r="E228" t="n">
@@ -9220,30 +9216,32 @@
       <c r="H228" t="n">
         <v>258</v>
       </c>
-      <c r="I228" t="inlineStr"/>
+      <c r="I228" t="n">
+        <v>7</v>
+      </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>p_hlth_hhs_training_src__4</t>
+          <t>p_hlth_info_covid_src__2</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>p_hlth_hhs_training_src</t>
+          <t>p_hlth_info_covid_src</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Radio</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>अन्य</t>
+          <t>रेडियो</t>
         </is>
       </c>
       <c r="E229" t="n">
@@ -9258,10 +9256,12 @@
       <c r="H229" t="n">
         <v>258</v>
       </c>
-      <c r="I229" t="inlineStr"/>
+      <c r="I229" t="n">
+        <v>3</v>
+      </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>p_hlth_hhs_training_src__5</t>
+          <t>p_hlth_info_covid_src__3</t>
         </is>
       </c>
     </row>
@@ -9272,16 +9272,16 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Family and friends</t>
+          <t>Television</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>परिवार जन तथा छिमेकी</t>
+          <t>टेलिभिजन</t>
         </is>
       </c>
       <c r="E230" t="n">
@@ -9297,11 +9297,11 @@
         <v>258</v>
       </c>
       <c r="I230" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>p_hlth_info_covid_src__1</t>
+          <t>p_hlth_info_covid_src__4</t>
         </is>
       </c>
     </row>
@@ -9312,16 +9312,16 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Social media</t>
+          <t>Newspapers</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>सामाजिक संजाल</t>
+          <t>पत्र-पत्रिका</t>
         </is>
       </c>
       <c r="E231" t="n">
@@ -9337,11 +9337,11 @@
         <v>258</v>
       </c>
       <c r="I231" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>p_hlth_info_covid_src__2</t>
+          <t>p_hlth_info_covid_src__5</t>
         </is>
       </c>
     </row>
@@ -9352,16 +9352,16 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Radio</t>
+          <t>Nearby health service provider</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>रेडियो</t>
+          <t>नजिकैको स्वास्थ्य सेवा</t>
         </is>
       </c>
       <c r="E232" t="n">
@@ -9377,31 +9377,31 @@
         <v>258</v>
       </c>
       <c r="I232" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>p_hlth_info_covid_src__3</t>
+          <t>p_hlth_info_covid_src__6</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>p_hlth_info_covid_src</t>
+          <t>p_lvlhd_lrnd_new_skills</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Television</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>टेलिभिजन</t>
+          <t>छैन</t>
         </is>
       </c>
       <c r="E233" t="n">
@@ -9416,32 +9416,30 @@
       <c r="H233" t="n">
         <v>258</v>
       </c>
-      <c r="I233" t="n">
-        <v>7</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr">
         <is>
-          <t>p_hlth_info_covid_src__4</t>
+          <t>p_lvlhd_lrnd_new_skills__1</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>p_hlth_info_covid_src</t>
+          <t>p_lvlhd_lrnd_new_skills</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Newspapers</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>पत्र-पत्रिका</t>
+          <t>छ</t>
         </is>
       </c>
       <c r="E234" t="n">
@@ -9456,32 +9454,30 @@
       <c r="H234" t="n">
         <v>258</v>
       </c>
-      <c r="I234" t="n">
-        <v>6</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr">
         <is>
-          <t>p_hlth_info_covid_src__5</t>
+          <t>p_lvlhd_lrnd_new_skills__2</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>p_hlth_info_covid_src</t>
+          <t>n_rcvry_preferred_empl_incentives</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Nearby health service provider</t>
+          <t>Employment-related training or retraining</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>नजिकैको स्वास्थ्य सेवा</t>
+          <t>रोजगारीमूलक तालिम वा पुन:प्रशिक्षण</t>
         </is>
       </c>
       <c r="E235" t="n">
@@ -9497,31 +9493,31 @@
         <v>258</v>
       </c>
       <c r="I235" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>p_hlth_info_covid_src__6</t>
+          <t>n_rcvry_preferred_empl_incentives__2</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>p_hlth_info_covid_src</t>
+          <t>n_rcvry_preferred_empl_incentives</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Opportunity to learn new skills</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>अन्य</t>
+          <t>नयाँ सीप सिक्ने अवसर</t>
         </is>
       </c>
       <c r="E236" t="n">
@@ -9537,31 +9533,31 @@
         <v>258</v>
       </c>
       <c r="I236" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>p_hlth_info_covid_src__7</t>
+          <t>n_rcvry_preferred_empl_incentives__3</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>p_lvlhd_lrnd_new_skills</t>
+          <t>n_rcvry_preferred_empl_incentives</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>New employment opportunities</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>छैन</t>
+          <t>नयाँ रोजगारीको अवसर</t>
         </is>
       </c>
       <c r="E237" t="n">
@@ -9576,30 +9572,32 @@
       <c r="H237" t="n">
         <v>258</v>
       </c>
-      <c r="I237" t="inlineStr"/>
+      <c r="I237" t="n">
+        <v>3</v>
+      </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>p_lvlhd_lrnd_new_skills__1</t>
+          <t>n_rcvry_preferred_empl_incentives__4</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>p_lvlhd_lrnd_new_skills</t>
+          <t>n_rcvry_preferred_fin_incentives</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Provision of social security system</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>छ</t>
+          <t>सामाजिक सुरक्षाको व्यवस्था</t>
         </is>
       </c>
       <c r="E238" t="n">
@@ -9614,30 +9612,32 @@
       <c r="H238" t="n">
         <v>258</v>
       </c>
-      <c r="I238" t="inlineStr"/>
+      <c r="I238" t="n">
+        <v>6</v>
+      </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>p_lvlhd_lrnd_new_skills__2</t>
+          <t>n_rcvry_preferred_fin_incentives__9</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>n_rcvry_preferred_incentives</t>
+          <t>n_rcvry_preferred_fin_incentives</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Health training or retraining</t>
+          <t>Subsidized loans</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>स्वास्थ्य सम्बन्धि तालिम वा पुन:प्रशिक्षण</t>
+          <t>सहुलियत दरमा ऋण</t>
         </is>
       </c>
       <c r="E239" t="n">
@@ -9657,27 +9657,27 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>n_rcvry_preferred_incentives__1</t>
+          <t>n_rcvry_preferred_fin_incentives__5</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>n_rcvry_preferred_incentives</t>
+          <t>n_rcvry_preferred_fin_incentives</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Employment-related training or retraining</t>
+          <t>Special discounts on interest rate</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>रोजगारीमूलक तालिम वा पुन:प्रशिक्षण</t>
+          <t>ब्याज दरमा बिशेष छूट</t>
         </is>
       </c>
       <c r="E240" t="n">
@@ -9693,71 +9693,71 @@
         <v>258</v>
       </c>
       <c r="I240" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>n_rcvry_preferred_incentives__2</t>
+          <t>n_rcvry_preferred_fin_incentives__6</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>n_rcvry_preferred_incentives</t>
+          <t>n_rcvry_preferred_fin_incentives</t>
         </is>
       </c>
       <c r="B241" t="n">
+        <v>7</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Tax discount</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>करमा छूट</t>
+        </is>
+      </c>
+      <c r="E241" t="n">
+        <v>0</v>
+      </c>
+      <c r="F241" t="n">
+        <v>0</v>
+      </c>
+      <c r="G241" t="n">
+        <v>0</v>
+      </c>
+      <c r="H241" t="n">
+        <v>258</v>
+      </c>
+      <c r="I241" t="n">
         <v>3</v>
       </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>Opportunity to learn new skills</t>
-        </is>
-      </c>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>नयाँ सीप सिक्ने अवसर</t>
-        </is>
-      </c>
-      <c r="E241" t="n">
-        <v>0</v>
-      </c>
-      <c r="F241" t="n">
-        <v>0</v>
-      </c>
-      <c r="G241" t="n">
-        <v>0</v>
-      </c>
-      <c r="H241" t="n">
-        <v>258</v>
-      </c>
-      <c r="I241" t="n">
-        <v>9</v>
-      </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>n_rcvry_preferred_incentives__3</t>
+          <t>n_rcvry_preferred_fin_incentives__7</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>n_rcvry_preferred_incentives</t>
+          <t>n_rcvry_preferred_fin_incentives</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>New employment opportunities</t>
+          <t>Deferral or extension of EMI periods</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>नयाँ रोजगारीको अवसर</t>
+          <t>बैंक आदि लगायतको किस्ता तिर्ने अवधि बढाउने वा केहि समयका लागि किस्ता तिर्न नपर्ने</t>
         </is>
       </c>
       <c r="E242" t="n">
@@ -9773,71 +9773,71 @@
         <v>258</v>
       </c>
       <c r="I242" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>n_rcvry_preferred_incentives__4</t>
+          <t>n_rcvry_preferred_fin_incentives__8</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>n_rcvry_preferred_incentives</t>
+          <t>n_rcvry_preferred_fin_incentives</t>
         </is>
       </c>
       <c r="B243" t="n">
+        <v>10</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Grant</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>अनुदान</t>
+        </is>
+      </c>
+      <c r="E243" t="n">
+        <v>0</v>
+      </c>
+      <c r="F243" t="n">
+        <v>0</v>
+      </c>
+      <c r="G243" t="n">
+        <v>0</v>
+      </c>
+      <c r="H243" t="n">
+        <v>258</v>
+      </c>
+      <c r="I243" t="n">
         <v>5</v>
       </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>Subsidized loans</t>
-        </is>
-      </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>सहुलियत दरमा ऋण</t>
-        </is>
-      </c>
-      <c r="E243" t="n">
-        <v>0</v>
-      </c>
-      <c r="F243" t="n">
-        <v>0</v>
-      </c>
-      <c r="G243" t="n">
-        <v>0</v>
-      </c>
-      <c r="H243" t="n">
-        <v>258</v>
-      </c>
-      <c r="I243" t="n">
-        <v>14</v>
-      </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>n_rcvry_preferred_incentives__5</t>
+          <t>n_rcvry_preferred_fin_incentives__10</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>n_rcvry_preferred_incentives</t>
+          <t>o_econ_impact_fml_income_chng_21_v_19</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Special discounts on interest rate</t>
+          <t>Will stay the same</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>ब्याज दरमा बिशेष छूट</t>
+          <t>कुल आय लगभग उत्तिक्कै हुन्छ होला</t>
         </is>
       </c>
       <c r="E244" t="n">
@@ -9853,31 +9853,31 @@
         <v>258</v>
       </c>
       <c r="I244" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>n_rcvry_preferred_incentives__6</t>
+          <t>o_econ_impact_fml_income_chng_21_v_19__1</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>n_rcvry_preferred_incentives</t>
+          <t>o_econ_impact_fml_income_chng_21_v_19</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Tax discount</t>
+          <t>Will reduce by 25%</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>करमा छूट</t>
+          <t>कुल आय एक-चौथाई (२५%)ले घट्छ होला</t>
         </is>
       </c>
       <c r="E245" t="n">
@@ -9893,31 +9893,31 @@
         <v>258</v>
       </c>
       <c r="I245" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>n_rcvry_preferred_incentives__7</t>
+          <t>o_econ_impact_fml_income_chng_21_v_19__2</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>n_rcvry_preferred_incentives</t>
+          <t>o_econ_impact_fml_income_chng_21_v_19</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Deferral or extension of EMI periods</t>
+          <t>Will reduce by 50%</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>बैंक आदि लगायतको किस्ता तिर्ने अवधि बढाउने वा केहि समयका लागि किस्ता तिर्न नपर्ने</t>
+          <t>कुल आय आधि (५०%)ले घट्छ होला</t>
         </is>
       </c>
       <c r="E246" t="n">
@@ -9937,27 +9937,27 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>n_rcvry_preferred_incentives__8</t>
+          <t>o_econ_impact_fml_income_chng_21_v_19__3</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>n_rcvry_preferred_incentives</t>
+          <t>o_econ_impact_fml_income_chng_21_v_19</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Provision of social security system</t>
+          <t>Will reduce by 75%</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>सामाजिक सुरक्षाको व्यवस्था</t>
+          <t>कुल आय तीन-चौथाई (७५%)ले घट्छ होला</t>
         </is>
       </c>
       <c r="E247" t="n">
@@ -9973,31 +9973,31 @@
         <v>258</v>
       </c>
       <c r="I247" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>n_rcvry_preferred_incentives__9</t>
+          <t>o_econ_impact_fml_income_chng_21_v_19__4</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>n_rcvry_preferred_incentives</t>
+          <t>o_econ_impact_fml_income_chng_21_v_19</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Grant</t>
+          <t>Will reduce to zero</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>अनुदान</t>
+          <t>कुल आय लगभग शुन्य (०%) हुन्छ होला</t>
         </is>
       </c>
       <c r="E248" t="n">
@@ -10013,31 +10013,31 @@
         <v>258</v>
       </c>
       <c r="I248" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>n_rcvry_preferred_incentives__10</t>
+          <t>o_econ_impact_fml_income_chng_21_v_19__5</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>n_rcvry_preferred_incentives</t>
+          <t>o_econ_impact_fml_income_chng_21_v_19</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Health counseling to reduce mental stres</t>
+          <t>Will exceed that of 2019</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>मानसिक तनाव कम गर्न स्वास्थ्य परामर्श</t>
+          <t>कुल आय बढ्छ होला</t>
         </is>
       </c>
       <c r="E249" t="n">
@@ -10053,31 +10053,31 @@
         <v>258</v>
       </c>
       <c r="I249" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>n_rcvry_preferred_incentives__11</t>
+          <t>o_econ_impact_fml_income_chng_21_v_19__6</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>n_rcvry_preferred_incentives</t>
+          <t>o_econ_impact_how_long_months</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>Less than 6 months</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>अन्य</t>
+          <t>६ महिना भन्दा कम</t>
         </is>
       </c>
       <c r="E250" t="n">
@@ -10093,31 +10093,31 @@
         <v>258</v>
       </c>
       <c r="I250" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>n_rcvry_preferred_incentives__12</t>
+          <t>o_econ_impact_how_long_months__1</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>n_rcvry_preferred_incentives</t>
+          <t>o_econ_impact_how_long_months</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>I was not affected by Covid-19 in any way</t>
+          <t>6 to 12 months</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>मलाई कोभिड-१९ ले कुनै प्रकारको असर गरेन</t>
+          <t>६ देखि १२ महिना सम्म</t>
         </is>
       </c>
       <c r="E251" t="n">
@@ -10137,27 +10137,27 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>n_rcvry_preferred_incentives__13</t>
+          <t>o_econ_impact_how_long_months__2</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>o_econ_impact_fml_income_chng_21_v_19</t>
+          <t>o_econ_impact_how_long_months</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Will stay the same</t>
+          <t>13 to 24 months</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>कुल आय लगभग उत्तिक्कै हुन्छ होला</t>
+          <t>१३ देखि २४ महिना सम्म</t>
         </is>
       </c>
       <c r="E252" t="n">
@@ -10173,31 +10173,31 @@
         <v>258</v>
       </c>
       <c r="I252" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>o_econ_impact_fml_income_chng_21_v_19__1</t>
+          <t>o_econ_impact_how_long_months__3</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>o_econ_impact_fml_income_chng_21_v_19</t>
+          <t>o_econ_impact_how_long_months</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Will reduce by 25%</t>
+          <t>24 months or more</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>कुल आय एक-चौथाई (२५%)ले घट्छ होला</t>
+          <t>२४ महिना भन्दा बढी</t>
         </is>
       </c>
       <c r="E253" t="n">
@@ -10213,31 +10213,31 @@
         <v>258</v>
       </c>
       <c r="I253" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>o_econ_impact_fml_income_chng_21_v_19__2</t>
+          <t>o_econ_impact_how_long_months__4</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>o_econ_impact_fml_income_chng_21_v_19</t>
+          <t>o_empl_status_to_nrml_how_long_months</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Will reduce by 50%</t>
+          <t>Immediately</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>कुल आय आधि (५०%)ले घट्छ होला</t>
+          <t>तुरुन्तै</t>
         </is>
       </c>
       <c r="E254" t="n">
@@ -10253,31 +10253,31 @@
         <v>258</v>
       </c>
       <c r="I254" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>o_econ_impact_fml_income_chng_21_v_19__3</t>
+          <t>o_empl_status_to_nrml_how_long_months__1</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>o_econ_impact_fml_income_chng_21_v_19</t>
+          <t>o_empl_status_to_nrml_how_long_months</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Will reduce by 75%</t>
+          <t>Within 3 months</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>कुल आय तीन-चौथाई (७५%)ले घट्छ होला</t>
+          <t>सुचारु भएको ३ महिना भित्र</t>
         </is>
       </c>
       <c r="E255" t="n">
@@ -10293,31 +10293,31 @@
         <v>258</v>
       </c>
       <c r="I255" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>o_econ_impact_fml_income_chng_21_v_19__4</t>
+          <t>o_empl_status_to_nrml_how_long_months__2</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>o_econ_impact_fml_income_chng_21_v_19</t>
+          <t>o_empl_status_to_nrml_how_long_months</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Will reduce to zero</t>
+          <t>Within 12 months</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>कुल आय लगभग शुन्य (०%) हुन्छ होला</t>
+          <t>सुचारु भएको १२ महिना भित्र</t>
         </is>
       </c>
       <c r="E256" t="n">
@@ -10333,31 +10333,31 @@
         <v>258</v>
       </c>
       <c r="I256" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>o_econ_impact_fml_income_chng_21_v_19__5</t>
+          <t>o_empl_status_to_nrml_how_long_months__3</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>o_econ_impact_fml_income_chng_21_v_19</t>
+          <t>o_empl_status_to_nrml_how_long_months</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Will exceed that of 2019</t>
+          <t>I've left the tourism sector</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>कुल आय बढ्छ होला</t>
+          <t>म पर्यटन क्षेत्रमा अब काम नगर्ने भएको छु</t>
         </is>
       </c>
       <c r="E257" t="n">
@@ -10373,31 +10373,31 @@
         <v>258</v>
       </c>
       <c r="I257" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>o_econ_impact_fml_income_chng_21_v_19__6</t>
+          <t>o_empl_status_to_nrml_how_long_months__4</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>o_econ_impact_how_long_months</t>
+          <t>o_empl_status_to_nrml_how_long_months</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Less than 6 months</t>
+          <t>Can't say</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>६ महिना भन्दा कम</t>
+          <t>केहि भन्न सकिंदैन</t>
         </is>
       </c>
       <c r="E258" t="n">
@@ -10413,31 +10413,31 @@
         <v>258</v>
       </c>
       <c r="I258" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>o_econ_impact_how_long_months__1</t>
+          <t>o_empl_status_to_nrml_how_long_months__5</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>o_econ_impact_how_long_months</t>
+          <t>o_rcvry_chllng_trsm_revival</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>6 to 12 months</t>
+          <t>Winning tourists' confidence</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>६ देखि १२ महिना सम्म</t>
+          <t>कोभिड-१९ को सन्दर्भमा पर्यटकको बिश्वाश जित्ने</t>
         </is>
       </c>
       <c r="E259" t="n">
@@ -10453,31 +10453,31 @@
         <v>258</v>
       </c>
       <c r="I259" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>o_econ_impact_how_long_months__2</t>
+          <t>o_rcvry_chllng_trsm_revival__1</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>o_econ_impact_how_long_months</t>
+          <t>o_rcvry_chllng_trsm_revival</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>13 to 24 months</t>
+          <t>Ensuring HHS Compliance</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>१३ देखि २४ महिना सम्म</t>
+          <t>स्वास्थ्य र सुरक्षा उपायहरू सुनिश्चित गर्ने</t>
         </is>
       </c>
       <c r="E260" t="n">
@@ -10493,31 +10493,31 @@
         <v>258</v>
       </c>
       <c r="I260" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>o_econ_impact_how_long_months__3</t>
+          <t>o_rcvry_chllng_trsm_revival__2</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>o_econ_impact_how_long_months</t>
+          <t>o_rcvry_chllng_trsm_revival</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>24 months or more</t>
+          <t>Overcoming financial challenges</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>२४ महिना भन्दा बढी</t>
+          <t>आर्थिक चुनौतीहरू</t>
         </is>
       </c>
       <c r="E261" t="n">
@@ -10537,27 +10537,27 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>o_econ_impact_how_long_months__4</t>
+          <t>o_rcvry_chllng_trsm_revival__3</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>o_empl_status_to_nrml_how_long_months</t>
+          <t>o_rcvry_chllng_trsm_revival</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Immediately</t>
+          <t>Decreased number of tourists</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>तुरुन्तै</t>
+          <t>पर्यटकको संख्यामा आउने कमि</t>
         </is>
       </c>
       <c r="E262" t="n">
@@ -10573,31 +10573,31 @@
         <v>258</v>
       </c>
       <c r="I262" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>o_empl_status_to_nrml_how_long_months__1</t>
+          <t>o_rcvry_chllng_trsm_revival__4</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>o_empl_status_to_nrml_how_long_months</t>
+          <t>o_rcvry_chllng_trsm_revival</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Within 3 months</t>
+          <t>Understanding the demands and needs of the source market correctly</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>सुचारु भएको ३ महिना भित्र</t>
+          <t>स्रोत बजार (Source market) को मांग र आवश्यकता सही ढङ्गमा बुझ्ने</t>
         </is>
       </c>
       <c r="E263" t="n">
@@ -10617,27 +10617,27 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>o_empl_status_to_nrml_how_long_months__2</t>
+          <t>o_rcvry_chllng_trsm_revival__5</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>o_empl_status_to_nrml_how_long_months</t>
+          <t>o_rcvry_chllng_trsm_revival</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Within 12 months</t>
+          <t>other</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>सुचारु भएको १२ महिना भित्र</t>
+          <t>अन्य</t>
         </is>
       </c>
       <c r="E264" t="n">
@@ -10653,31 +10653,31 @@
         <v>258</v>
       </c>
       <c r="I264" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>o_empl_status_to_nrml_how_long_months__3</t>
+          <t>o_rcvry_chllng_trsm_revival__6</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>o_empl_status_to_nrml_how_long_months</t>
+          <t>o_impct_to_self_nxt_6_mnths</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>I've left the tourism sector</t>
+          <t>Won't be able to pay house / room rent</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>म पर्यटन क्षेत्रमा अब काम नगर्ने भएको छु</t>
+          <t>घर/कोठा भाडा तिर्न सकिन्न</t>
         </is>
       </c>
       <c r="E265" t="n">
@@ -10693,31 +10693,31 @@
         <v>258</v>
       </c>
       <c r="I265" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>o_empl_status_to_nrml_how_long_months__4</t>
+          <t>o_impct_to_self_nxt_6_mnths__1</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>o_empl_status_to_nrml_how_long_months</t>
+          <t>o_impct_to_self_nxt_6_mnths</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Can't say</t>
+          <t>Won't be able to meet necessary health care expenses</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>केहि भन्न सकिंदैन</t>
+          <t>स्वास्थ्य सेवाको लागि आवश्यक खर्च जुटाउन सकिन्न</t>
         </is>
       </c>
       <c r="E266" t="n">
@@ -10733,31 +10733,31 @@
         <v>258</v>
       </c>
       <c r="I266" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>o_empl_status_to_nrml_how_long_months__5</t>
+          <t>o_impct_to_self_nxt_6_mnths__3</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>o_rcvry_chllng_trsm_revival</t>
+          <t>o_impct_to_self_nxt_6_mnths</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Winning tourists' confidence</t>
+          <t>Won't be able to afford necessary educational services</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>कोभिड-१९ को सन्दर्भमा पर्यटकको बिश्वाश जित्ने</t>
+          <t>शैक्षिक सेवाको लागि आवश्यक खर्च जुटाउन सकिन्न</t>
         </is>
       </c>
       <c r="E267" t="n">
@@ -10773,31 +10773,31 @@
         <v>258</v>
       </c>
       <c r="I267" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>o_rcvry_chllng_trsm_revival__1</t>
+          <t>o_impct_to_self_nxt_6_mnths__4</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>o_rcvry_chllng_trsm_revival</t>
+          <t>o_impct_to_self_nxt_6_mnths</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Ensuring HHS Compliance</t>
+          <t>Won't be able to meet food expenses</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>स्वास्थ्य र सुरक्षा उपायहरू सुनिश्चित गर्ने</t>
+          <t>खानपिनको लागि आवश्यक खर्च जुटाउन सकिन्न</t>
         </is>
       </c>
       <c r="E268" t="n">
@@ -10813,31 +10813,31 @@
         <v>258</v>
       </c>
       <c r="I268" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>o_rcvry_chllng_trsm_revival__2</t>
+          <t>o_impct_to_self_nxt_6_mnths__5</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>o_rcvry_chllng_trsm_revival</t>
+          <t>o_impct_to_self_nxt_6_mnths</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Overcoming financial challenges</t>
+          <t>Won't be able to acquire additional loans and borrowings</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>आर्थिक चुनौतीहरू</t>
+          <t>ऋण तथा सापटी लिन सकिन्न</t>
         </is>
       </c>
       <c r="E269" t="n">
@@ -10853,31 +10853,31 @@
         <v>258</v>
       </c>
       <c r="I269" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>o_rcvry_chllng_trsm_revival__3</t>
+          <t>o_impct_to_self_nxt_6_mnths__6</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>o_rcvry_chllng_trsm_revival</t>
+          <t>o_impct_to_self_nxt_6_mnths</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Decreased number of tourists</t>
+          <t>Won't be able to pay off existing loans</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>पर्यटकको संख्यामा आउने कमि</t>
+          <t>ऋण तथा सापटी तिर्न सकिन्न</t>
         </is>
       </c>
       <c r="E270" t="n">
@@ -10893,31 +10893,31 @@
         <v>258</v>
       </c>
       <c r="I270" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>o_rcvry_chllng_trsm_revival__4</t>
+          <t>o_impct_to_self_nxt_6_mnths__7</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>o_rcvry_chllng_trsm_revival</t>
+          <t>o_impct_has_assets_for_addtnl_loan</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Understanding the demands and needs of the source market correctly</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>स्रोत बजार (Source market) को मांग र आवश्यकता सही ढङ्गमा बुझ्ने</t>
+          <t>छैन</t>
         </is>
       </c>
       <c r="E271" t="n">
@@ -10932,32 +10932,30 @@
       <c r="H271" t="n">
         <v>258</v>
       </c>
-      <c r="I271" t="n">
-        <v>4</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr">
         <is>
-          <t>o_rcvry_chllng_trsm_revival__5</t>
+          <t>o_impct_has_assets_for_addtnl_loan__1</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>o_rcvry_chllng_trsm_revival</t>
+          <t>o_impct_has_assets_for_addtnl_loan</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>अन्य</t>
+          <t>छ</t>
         </is>
       </c>
       <c r="E272" t="n">
@@ -10972,32 +10970,30 @@
       <c r="H272" t="n">
         <v>258</v>
       </c>
-      <c r="I272" t="n">
-        <v>1</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr">
         <is>
-          <t>o_rcvry_chllng_trsm_revival__6</t>
+          <t>o_impct_has_assets_for_addtnl_loan__2</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>o_rcvry_chllng_trsm_revival</t>
+          <t>m_gender</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>There are no challenges in the tourism sector that I am involved in</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>म संलग्न रहेको पर्यटन क्षेत्रमा कुनै किसिमका चुनौतीहरू छैनन्</t>
+          <t>पुरुष</t>
         </is>
       </c>
       <c r="E273" t="n">
@@ -11017,27 +11013,27 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>o_rcvry_chllng_trsm_revival__7</t>
+          <t>m_gender__1</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>o_impct_to_self_nxt_6_mnths</t>
+          <t>m_gender</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Won't be able to pay house / room rent (partially)</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>घर/कोठा भाडा तिर्न सकिन्न (आम्सिक)</t>
+          <t>महिला</t>
         </is>
       </c>
       <c r="E274" t="n">
@@ -11053,31 +11049,31 @@
         <v>258</v>
       </c>
       <c r="I274" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>o_impct_to_self_nxt_6_mnths__1</t>
+          <t>m_gender__2</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>o_impct_to_self_nxt_6_mnths</t>
+          <t>m_gender</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Won't be able to pay house / room rent (full)</t>
+          <t>Third gender</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>घर/कोठा भाडा तिर्न सकिन्न (पूर्ण)</t>
+          <t>तेस्रो लिंगी</t>
         </is>
       </c>
       <c r="E275" t="n">
@@ -11092,32 +11088,30 @@
       <c r="H275" t="n">
         <v>258</v>
       </c>
-      <c r="I275" t="n">
-        <v>7</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr">
         <is>
-          <t>o_impct_to_self_nxt_6_mnths__2</t>
+          <t>m_gender__3</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>o_impct_to_self_nxt_6_mnths</t>
+          <t>m_age</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Won't be able to meet necessary health care expenses</t>
+          <t>Less than 20 years</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>स्वास्थ्य सेवाको लागि आवश्यक खर्च जुटाउन सकिन्न</t>
+          <t>०-२० बर्ष</t>
         </is>
       </c>
       <c r="E276" t="n">
@@ -11133,31 +11127,31 @@
         <v>258</v>
       </c>
       <c r="I276" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>o_impct_to_self_nxt_6_mnths__3</t>
+          <t>m_age__1</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>o_impct_to_self_nxt_6_mnths</t>
+          <t>m_age</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Won't be able to afford necessary educational services</t>
+          <t>21 - 40 years</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>शैक्षिक सेवाको लागि आवश्यक खर्च जुटाउन सकिन्न</t>
+          <t>२१-४० बर्ष</t>
         </is>
       </c>
       <c r="E277" t="n">
@@ -11173,31 +11167,31 @@
         <v>258</v>
       </c>
       <c r="I277" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>o_impct_to_self_nxt_6_mnths__4</t>
+          <t>m_age__2</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>o_impct_to_self_nxt_6_mnths</t>
+          <t>m_age</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Won't be able to meet fooding expenses</t>
+          <t>41 - 60 years</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>खानपिनको लागि आवश्यक खर्च जुटाउन सकिन्न</t>
+          <t>४१-६० वर्ष</t>
         </is>
       </c>
       <c r="E278" t="n">
@@ -11213,31 +11207,31 @@
         <v>258</v>
       </c>
       <c r="I278" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>o_impct_to_self_nxt_6_mnths__5</t>
+          <t>m_age__3</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>o_impct_to_self_nxt_6_mnths</t>
+          <t>m_age</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Won't be able to acquire additional loans and borrowings</t>
+          <t>61 and above</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>ऋण तथा सापटी लिन सकिन्न</t>
+          <t>६१ वर्ष वा माथि</t>
         </is>
       </c>
       <c r="E279" t="n">
@@ -11252,32 +11246,30 @@
       <c r="H279" t="n">
         <v>258</v>
       </c>
-      <c r="I279" t="n">
-        <v>5</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr">
         <is>
-          <t>o_impct_to_self_nxt_6_mnths__6</t>
+          <t>m_age__4</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>o_impct_to_self_nxt_6_mnths</t>
+          <t>m_edu_levl</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Won't be able to pay off existing loans</t>
+          <t>No education (illiterate)</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>ऋण तथा सापटी तिर्न सकिन्न</t>
+          <t>निरक्षर</t>
         </is>
       </c>
       <c r="E280" t="n">
@@ -11293,31 +11285,31 @@
         <v>258</v>
       </c>
       <c r="I280" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>o_impct_to_self_nxt_6_mnths__7</t>
+          <t>m_edu_levl__1</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>o_impct_to_self_nxt_6_mnths</t>
+          <t>m_edu_levl</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>Can read and/or write</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>अन्य</t>
+          <t>अक्षर चिन्ने</t>
         </is>
       </c>
       <c r="E281" t="n">
@@ -11333,31 +11325,31 @@
         <v>258</v>
       </c>
       <c r="I281" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>o_impct_to_self_nxt_6_mnths__8</t>
+          <t>m_edu_levl__2</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>o_impct_to_self_nxt_6_mnths</t>
+          <t>m_edu_levl</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>I won't have to suffer from Covid-19 in any way</t>
+          <t>SLC or equivalent</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>मलाई कोभिड-१९ ले कुनै प्रकारको अवस्था भोग्नु नपर्ला</t>
+          <t>एस्.एल.सी.</t>
         </is>
       </c>
       <c r="E282" t="n">
@@ -11373,31 +11365,31 @@
         <v>258</v>
       </c>
       <c r="I282" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>o_impct_to_self_nxt_6_mnths__9</t>
+          <t>m_edu_levl__3</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>o_impct_has_assets_for_addtnl_loan</t>
+          <t>m_edu_levl</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>10+2 or equivalent</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>छैन</t>
+          <t>+२' वा सो सरह</t>
         </is>
       </c>
       <c r="E283" t="n">
@@ -11412,30 +11404,32 @@
       <c r="H283" t="n">
         <v>258</v>
       </c>
-      <c r="I283" t="inlineStr"/>
+      <c r="I283" t="n">
+        <v>5</v>
+      </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>o_impct_has_assets_for_addtnl_loan__1</t>
+          <t>m_edu_levl__4</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>o_impct_has_assets_for_addtnl_loan</t>
+          <t>m_edu_levl</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Bachelor's degree or equivalent</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>छ</t>
+          <t>स्नातक</t>
         </is>
       </c>
       <c r="E284" t="n">
@@ -11450,30 +11444,32 @@
       <c r="H284" t="n">
         <v>258</v>
       </c>
-      <c r="I284" t="inlineStr"/>
+      <c r="I284" t="n">
+        <v>6</v>
+      </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>o_impct_has_assets_for_addtnl_loan__2</t>
+          <t>m_edu_levl__5</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>m_gender</t>
+          <t>m_edu_levl</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Master's degree or higher</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>पुरुष</t>
+          <t>स्नातकोत्तर वा माथि</t>
         </is>
       </c>
       <c r="E285" t="n">
@@ -11489,109 +11485,111 @@
         <v>258</v>
       </c>
       <c r="I285" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>m_gender__1</t>
+          <t>m_edu_levl__6</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>m_gender</t>
+          <t>m_years_of_experience</t>
         </is>
       </c>
       <c r="B286" t="n">
+        <v>1</v>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>0 to 2 years</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>०-२ वर्ष</t>
+        </is>
+      </c>
+      <c r="E286" t="n">
+        <v>0</v>
+      </c>
+      <c r="F286" t="n">
+        <v>0</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0</v>
+      </c>
+      <c r="H286" t="n">
+        <v>258</v>
+      </c>
+      <c r="I286" t="n">
         <v>2</v>
       </c>
-      <c r="C286" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="D286" t="inlineStr">
-        <is>
-          <t>महिला</t>
-        </is>
-      </c>
-      <c r="E286" t="n">
-        <v>0</v>
-      </c>
-      <c r="F286" t="n">
-        <v>0</v>
-      </c>
-      <c r="G286" t="n">
-        <v>0</v>
-      </c>
-      <c r="H286" t="n">
-        <v>258</v>
-      </c>
-      <c r="I286" t="n">
-        <v>3</v>
-      </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>m_gender__2</t>
+          <t>m_years_of_experience__1</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>m_gender</t>
+          <t>m_years_of_experience</t>
         </is>
       </c>
       <c r="B287" t="n">
+        <v>2</v>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>3 to 5 years</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>३-५ वर्ष</t>
+        </is>
+      </c>
+      <c r="E287" t="n">
+        <v>0</v>
+      </c>
+      <c r="F287" t="n">
+        <v>0</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0</v>
+      </c>
+      <c r="H287" t="n">
+        <v>258</v>
+      </c>
+      <c r="I287" t="n">
         <v>3</v>
       </c>
-      <c r="C287" t="inlineStr">
-        <is>
-          <t>Third gender</t>
-        </is>
-      </c>
-      <c r="D287" t="inlineStr">
-        <is>
-          <t>तेस्रो लिंगी</t>
-        </is>
-      </c>
-      <c r="E287" t="n">
-        <v>0</v>
-      </c>
-      <c r="F287" t="n">
-        <v>0</v>
-      </c>
-      <c r="G287" t="n">
-        <v>0</v>
-      </c>
-      <c r="H287" t="n">
-        <v>258</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr">
         <is>
-          <t>m_gender__3</t>
+          <t>m_years_of_experience__2</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>m_age</t>
+          <t>m_years_of_experience</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Less than 20 years</t>
+          <t>6 to 10 years</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>०-२० बर्ष</t>
+          <t>६-१० वर्ष</t>
         </is>
       </c>
       <c r="E288" t="n">
@@ -11607,31 +11605,31 @@
         <v>258</v>
       </c>
       <c r="I288" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>m_age__1</t>
+          <t>m_years_of_experience__3</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>m_age</t>
+          <t>m_years_of_experience</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>21 - 40 years</t>
+          <t>11 to 15 years</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>२१-४० बर्ष</t>
+          <t>११-१५ बर्ष</t>
         </is>
       </c>
       <c r="E289" t="n">
@@ -11647,31 +11645,31 @@
         <v>258</v>
       </c>
       <c r="I289" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>m_age__2</t>
+          <t>m_years_of_experience__4</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>m_age</t>
+          <t>m_years_of_experience</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>41 - 60 years</t>
+          <t>15 years or more</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>४१-६० वर्ष</t>
+          <t>१५ वर्ष भन्दा बढी</t>
         </is>
       </c>
       <c r="E290" t="n">
@@ -11687,31 +11685,31 @@
         <v>258</v>
       </c>
       <c r="I290" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>m_age__3</t>
+          <t>m_years_of_experience__5</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>m_age</t>
+          <t>district</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>61 and above</t>
+          <t>Achham</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>६१ वर्ष वा माथि</t>
+          <t>अछाम</t>
         </is>
       </c>
       <c r="E291" t="n">
@@ -11729,27 +11727,27 @@
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr">
         <is>
-          <t>m_age__4</t>
+          <t>district__1</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>m_edu_levl</t>
+          <t>district</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>No education (illiterate)</t>
+          <t>Arghakhanchi</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>निरक्षर</t>
+          <t>अर्घाखाँची</t>
         </is>
       </c>
       <c r="E292" t="n">
@@ -11764,32 +11762,30 @@
       <c r="H292" t="n">
         <v>258</v>
       </c>
-      <c r="I292" t="n">
-        <v>2</v>
-      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr">
         <is>
-          <t>m_edu_levl__1</t>
+          <t>district__2</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>m_edu_levl</t>
+          <t>district</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Can read and/or write</t>
+          <t>Baglung</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>अक्षर चिन्ने</t>
+          <t>बागलुङ</t>
         </is>
       </c>
       <c r="E293" t="n">
@@ -11804,32 +11800,30 @@
       <c r="H293" t="n">
         <v>258</v>
       </c>
-      <c r="I293" t="n">
-        <v>3</v>
-      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr">
         <is>
-          <t>m_edu_levl__2</t>
+          <t>district__3</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>m_edu_levl</t>
+          <t>district</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>SLC or equivalent</t>
+          <t>Baitadi</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>एस्.एल.सी.</t>
+          <t>बैतडी</t>
         </is>
       </c>
       <c r="E294" t="n">
@@ -11844,32 +11838,30 @@
       <c r="H294" t="n">
         <v>258</v>
       </c>
-      <c r="I294" t="n">
-        <v>4</v>
-      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr">
         <is>
-          <t>m_edu_levl__3</t>
+          <t>district__4</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>m_edu_levl</t>
+          <t>district</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>10+2 or equivalent</t>
+          <t>Bajhang</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>+२' वा सो सरह</t>
+          <t>बझाङ</t>
         </is>
       </c>
       <c r="E295" t="n">
@@ -11884,32 +11876,30 @@
       <c r="H295" t="n">
         <v>258</v>
       </c>
-      <c r="I295" t="n">
-        <v>5</v>
-      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr">
         <is>
-          <t>m_edu_levl__4</t>
+          <t>district__5</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>m_edu_levl</t>
+          <t>district</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Bachelor's degree or equivalent</t>
+          <t>Bajura</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>स्नातक</t>
+          <t>बाजुरा</t>
         </is>
       </c>
       <c r="E296" t="n">
@@ -11924,32 +11914,30 @@
       <c r="H296" t="n">
         <v>258</v>
       </c>
-      <c r="I296" t="n">
-        <v>6</v>
-      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr">
         <is>
-          <t>m_edu_levl__5</t>
+          <t>district__6</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>m_edu_levl</t>
+          <t>district</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Master's degree or higher</t>
+          <t>Banke</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>स्नातकोत्तर वा माथि</t>
+          <t>बाँके</t>
         </is>
       </c>
       <c r="E297" t="n">
@@ -11964,32 +11952,30 @@
       <c r="H297" t="n">
         <v>258</v>
       </c>
-      <c r="I297" t="n">
-        <v>7</v>
-      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr">
         <is>
-          <t>m_edu_levl__6</t>
+          <t>district__7</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>m_years_of_experience</t>
+          <t>district</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>0 to 2 years</t>
+          <t>Bara</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>०-२ वर्ष</t>
+          <t>बारा</t>
         </is>
       </c>
       <c r="E298" t="n">
@@ -12004,32 +11990,30 @@
       <c r="H298" t="n">
         <v>258</v>
       </c>
-      <c r="I298" t="n">
-        <v>2</v>
-      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr">
         <is>
-          <t>m_years_of_experience__1</t>
+          <t>district__8</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>m_years_of_experience</t>
+          <t>district</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>3 to 5 years</t>
+          <t>Bardiya</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>३-५ वर्ष</t>
+          <t>बर्दिया</t>
         </is>
       </c>
       <c r="E299" t="n">
@@ -12044,32 +12028,30 @@
       <c r="H299" t="n">
         <v>258</v>
       </c>
-      <c r="I299" t="n">
-        <v>3</v>
-      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr">
         <is>
-          <t>m_years_of_experience__2</t>
+          <t>district__9</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>m_years_of_experience</t>
+          <t>district</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>6 to 10 years</t>
+          <t>Bhaktapur</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>६-१० वर्ष</t>
+          <t>भक्तपुर</t>
         </is>
       </c>
       <c r="E300" t="n">
@@ -12084,32 +12066,30 @@
       <c r="H300" t="n">
         <v>258</v>
       </c>
-      <c r="I300" t="n">
-        <v>4</v>
-      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr">
         <is>
-          <t>m_years_of_experience__3</t>
+          <t>district__10</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>m_years_of_experience</t>
+          <t>district</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>11 to 15 years</t>
+          <t>Bhojpur</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>११-१५ बर्ष</t>
+          <t>भोजपुर</t>
         </is>
       </c>
       <c r="E301" t="n">
@@ -12124,32 +12104,30 @@
       <c r="H301" t="n">
         <v>258</v>
       </c>
-      <c r="I301" t="n">
-        <v>5</v>
-      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr">
         <is>
-          <t>m_years_of_experience__4</t>
+          <t>district__11</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>m_years_of_experience</t>
+          <t>district</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>15 years or more</t>
+          <t>Chitawan</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>१५ वर्ष भन्दा बढी</t>
+          <t>चितवन</t>
         </is>
       </c>
       <c r="E302" t="n">
@@ -12164,12 +12142,10 @@
       <c r="H302" t="n">
         <v>258</v>
       </c>
-      <c r="I302" t="n">
-        <v>6</v>
-      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr">
         <is>
-          <t>m_years_of_experience__5</t>
+          <t>district__12</t>
         </is>
       </c>
     </row>
@@ -12180,16 +12156,16 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Achham</t>
+          <t>Dadeldhura</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>अछाम</t>
+          <t>डडेलधुरा</t>
         </is>
       </c>
       <c r="E303" t="n">
@@ -12207,7 +12183,7 @@
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr">
         <is>
-          <t>district__1</t>
+          <t>district__13</t>
         </is>
       </c>
     </row>
@@ -12218,16 +12194,16 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Arghakhanchi</t>
+          <t>Dailekh</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>अर्घाखाँची</t>
+          <t>दैलेख</t>
         </is>
       </c>
       <c r="E304" t="n">
@@ -12245,7 +12221,7 @@
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr">
         <is>
-          <t>district__2</t>
+          <t>district__14</t>
         </is>
       </c>
     </row>
@@ -12256,16 +12232,16 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Baglung</t>
+          <t>Dang</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>बागलुङ</t>
+          <t>दाङ</t>
         </is>
       </c>
       <c r="E305" t="n">
@@ -12283,7 +12259,7 @@
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr">
         <is>
-          <t>district__3</t>
+          <t>district__15</t>
         </is>
       </c>
     </row>
@@ -12294,16 +12270,16 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Baitadi</t>
+          <t>Darchula</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>बैतडी</t>
+          <t>दार्चुला</t>
         </is>
       </c>
       <c r="E306" t="n">
@@ -12321,7 +12297,7 @@
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr">
         <is>
-          <t>district__4</t>
+          <t>district__16</t>
         </is>
       </c>
     </row>
@@ -12332,16 +12308,16 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Bajhang</t>
+          <t>Dhading</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>बझाङ</t>
+          <t>धादिङ</t>
         </is>
       </c>
       <c r="E307" t="n">
@@ -12359,7 +12335,7 @@
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr">
         <is>
-          <t>district__5</t>
+          <t>district__17</t>
         </is>
       </c>
     </row>
@@ -12370,16 +12346,16 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Bajura</t>
+          <t>Dhankuta</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>बाजुरा</t>
+          <t>धनकुटा</t>
         </is>
       </c>
       <c r="E308" t="n">
@@ -12397,7 +12373,7 @@
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr">
         <is>
-          <t>district__6</t>
+          <t>district__18</t>
         </is>
       </c>
     </row>
@@ -12408,16 +12384,16 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Banke</t>
+          <t>Dhanusa</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>बाँके</t>
+          <t>धनुषा</t>
         </is>
       </c>
       <c r="E309" t="n">
@@ -12435,7 +12411,7 @@
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr">
         <is>
-          <t>district__7</t>
+          <t>district__19</t>
         </is>
       </c>
     </row>
@@ -12446,16 +12422,16 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Bara</t>
+          <t>Dolakha</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>बारा</t>
+          <t>दोलखा</t>
         </is>
       </c>
       <c r="E310" t="n">
@@ -12473,7 +12449,7 @@
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr">
         <is>
-          <t>district__8</t>
+          <t>district__20</t>
         </is>
       </c>
     </row>
@@ -12484,16 +12460,16 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Bardiya</t>
+          <t>Dolpa</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>बर्दिया</t>
+          <t>डोल्पा</t>
         </is>
       </c>
       <c r="E311" t="n">
@@ -12511,7 +12487,7 @@
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr">
         <is>
-          <t>district__9</t>
+          <t>district__21</t>
         </is>
       </c>
     </row>
@@ -12522,16 +12498,16 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Bhaktapur</t>
+          <t>Doti</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>भक्तपुर</t>
+          <t>डोटी</t>
         </is>
       </c>
       <c r="E312" t="n">
@@ -12549,7 +12525,7 @@
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr">
         <is>
-          <t>district__10</t>
+          <t>district__22</t>
         </is>
       </c>
     </row>
@@ -12560,16 +12536,16 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Bhojpur</t>
+          <t>Gorkha</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>भोजपुर</t>
+          <t>गोरखा</t>
         </is>
       </c>
       <c r="E313" t="n">
@@ -12587,7 +12563,7 @@
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr">
         <is>
-          <t>district__11</t>
+          <t>district__23</t>
         </is>
       </c>
     </row>
@@ -12598,16 +12574,16 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Chitawan</t>
+          <t>Gulmi</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>चितवन</t>
+          <t>गुल्मी</t>
         </is>
       </c>
       <c r="E314" t="n">
@@ -12625,7 +12601,7 @@
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr">
         <is>
-          <t>district__12</t>
+          <t>district__24</t>
         </is>
       </c>
     </row>
@@ -12636,16 +12612,16 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Dadeldhura</t>
+          <t>Humla</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>डडेलधुरा</t>
+          <t>हुम्ला</t>
         </is>
       </c>
       <c r="E315" t="n">
@@ -12663,7 +12639,7 @@
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr">
         <is>
-          <t>district__13</t>
+          <t>district__25</t>
         </is>
       </c>
     </row>
@@ -12674,16 +12650,16 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Dailekh</t>
+          <t>Ilam</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>दैलेख</t>
+          <t>इलाम</t>
         </is>
       </c>
       <c r="E316" t="n">
@@ -12701,7 +12677,7 @@
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr">
         <is>
-          <t>district__14</t>
+          <t>district__26</t>
         </is>
       </c>
     </row>
@@ -12712,16 +12688,16 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Dang</t>
+          <t>Jajarkot</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>दाङ</t>
+          <t>जाजरकोट</t>
         </is>
       </c>
       <c r="E317" t="n">
@@ -12739,7 +12715,7 @@
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr">
         <is>
-          <t>district__15</t>
+          <t>district__27</t>
         </is>
       </c>
     </row>
@@ -12750,16 +12726,16 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Darchula</t>
+          <t>Jhapa</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>दार्चुला</t>
+          <t>झापा</t>
         </is>
       </c>
       <c r="E318" t="n">
@@ -12777,7 +12753,7 @@
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr">
         <is>
-          <t>district__16</t>
+          <t>district__28</t>
         </is>
       </c>
     </row>
@@ -12788,16 +12764,16 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Dhading</t>
+          <t>Jumla</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>धादिङ</t>
+          <t>जुम्ला</t>
         </is>
       </c>
       <c r="E319" t="n">
@@ -12815,7 +12791,7 @@
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr">
         <is>
-          <t>district__17</t>
+          <t>district__29</t>
         </is>
       </c>
     </row>
@@ -12826,16 +12802,16 @@
         </is>
       </c>
       <c r="B320" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Dhankuta</t>
+          <t>Kailali</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>धनकुटा</t>
+          <t>कैलाली</t>
         </is>
       </c>
       <c r="E320" t="n">
@@ -12853,7 +12829,7 @@
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr">
         <is>
-          <t>district__18</t>
+          <t>district__30</t>
         </is>
       </c>
     </row>
@@ -12864,16 +12840,16 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Dhanusa</t>
+          <t>Kalikot</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>धनुषा</t>
+          <t>कालिकोट</t>
         </is>
       </c>
       <c r="E321" t="n">
@@ -12891,7 +12867,7 @@
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr">
         <is>
-          <t>district__19</t>
+          <t>district__31</t>
         </is>
       </c>
     </row>
@@ -12902,16 +12878,16 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Dolakha</t>
+          <t>Kanchanpur</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>दोलखा</t>
+          <t>कंचनपुर</t>
         </is>
       </c>
       <c r="E322" t="n">
@@ -12929,7 +12905,7 @@
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr">
         <is>
-          <t>district__20</t>
+          <t>district__32</t>
         </is>
       </c>
     </row>
@@ -12940,16 +12916,16 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Dolpa</t>
+          <t>Kapilbastu</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>डोल्पा</t>
+          <t>कपिलवस्तु</t>
         </is>
       </c>
       <c r="E323" t="n">
@@ -12967,7 +12943,7 @@
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr">
         <is>
-          <t>district__21</t>
+          <t>district__33</t>
         </is>
       </c>
     </row>
@@ -12978,16 +12954,16 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Doti</t>
+          <t>Kaski</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>डोटी</t>
+          <t>कास्की</t>
         </is>
       </c>
       <c r="E324" t="n">
@@ -13005,7 +12981,7 @@
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr">
         <is>
-          <t>district__22</t>
+          <t>district__34</t>
         </is>
       </c>
     </row>
@@ -13016,16 +12992,16 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Gorkha</t>
+          <t>Kathmandu</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>गोरखा</t>
+          <t>काठमाडौँ</t>
         </is>
       </c>
       <c r="E325" t="n">
@@ -13043,7 +13019,7 @@
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr">
         <is>
-          <t>district__23</t>
+          <t>district__35</t>
         </is>
       </c>
     </row>
@@ -13054,16 +13030,16 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>Gulmi</t>
+          <t>Kavrepalanchok</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>गुल्मी</t>
+          <t>काभ्रेपलान्चोक</t>
         </is>
       </c>
       <c r="E326" t="n">
@@ -13081,7 +13057,7 @@
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr">
         <is>
-          <t>district__24</t>
+          <t>district__36</t>
         </is>
       </c>
     </row>
@@ -13092,16 +13068,16 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Humla</t>
+          <t>Khotang</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>हुम्ला</t>
+          <t>खोटाँग</t>
         </is>
       </c>
       <c r="E327" t="n">
@@ -13119,7 +13095,7 @@
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr">
         <is>
-          <t>district__25</t>
+          <t>district__37</t>
         </is>
       </c>
     </row>
@@ -13130,16 +13106,16 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Ilam</t>
+          <t>Lalitpur</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>इलाम</t>
+          <t>ललितपुर</t>
         </is>
       </c>
       <c r="E328" t="n">
@@ -13157,7 +13133,7 @@
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr">
         <is>
-          <t>district__26</t>
+          <t>district__38</t>
         </is>
       </c>
     </row>
@@ -13168,16 +13144,16 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Jajarkot</t>
+          <t>Lamjung</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>जाजरकोट</t>
+          <t>लमजुङ</t>
         </is>
       </c>
       <c r="E329" t="n">
@@ -13195,7 +13171,7 @@
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr">
         <is>
-          <t>district__27</t>
+          <t>district__39</t>
         </is>
       </c>
     </row>
@@ -13206,16 +13182,16 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Jhapa</t>
+          <t>Mahottari</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>झापा</t>
+          <t>महोत्तरी</t>
         </is>
       </c>
       <c r="E330" t="n">
@@ -13233,7 +13209,7 @@
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr">
         <is>
-          <t>district__28</t>
+          <t>district__40</t>
         </is>
       </c>
     </row>
@@ -13244,16 +13220,16 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Jumla</t>
+          <t>Makwanpur</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>जुम्ला</t>
+          <t>मकवानपुर</t>
         </is>
       </c>
       <c r="E331" t="n">
@@ -13271,7 +13247,7 @@
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr">
         <is>
-          <t>district__29</t>
+          <t>district__41</t>
         </is>
       </c>
     </row>
@@ -13282,16 +13258,16 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Kailali</t>
+          <t>Manang</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>कैलाली</t>
+          <t>मनाङ</t>
         </is>
       </c>
       <c r="E332" t="n">
@@ -13309,7 +13285,7 @@
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr">
         <is>
-          <t>district__30</t>
+          <t>district__42</t>
         </is>
       </c>
     </row>
@@ -13320,16 +13296,16 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Kalikot</t>
+          <t>Morang</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>कालिकोट</t>
+          <t>मोरंग</t>
         </is>
       </c>
       <c r="E333" t="n">
@@ -13347,7 +13323,7 @@
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr">
         <is>
-          <t>district__31</t>
+          <t>district__43</t>
         </is>
       </c>
     </row>
@@ -13358,16 +13334,16 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>Kanchanpur</t>
+          <t>Mugu</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>कंचनपुर</t>
+          <t>मुगु</t>
         </is>
       </c>
       <c r="E334" t="n">
@@ -13385,7 +13361,7 @@
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr">
         <is>
-          <t>district__32</t>
+          <t>district__44</t>
         </is>
       </c>
     </row>
@@ -13396,16 +13372,16 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>Kapilbastu</t>
+          <t>Mustang</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>कपिलवस्तु</t>
+          <t>मुस्ताङ</t>
         </is>
       </c>
       <c r="E335" t="n">
@@ -13423,7 +13399,7 @@
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr">
         <is>
-          <t>district__33</t>
+          <t>district__45</t>
         </is>
       </c>
     </row>
@@ -13434,16 +13410,16 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>Kaski</t>
+          <t>Myagdi</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>कास्की</t>
+          <t>म्याग्दी</t>
         </is>
       </c>
       <c r="E336" t="n">
@@ -13461,7 +13437,7 @@
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr">
         <is>
-          <t>district__34</t>
+          <t>district__46</t>
         </is>
       </c>
     </row>
@@ -13472,16 +13448,16 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>Kathmandu</t>
+          <t>Nawalpur</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>काठमाडौँ</t>
+          <t>नवलपुर</t>
         </is>
       </c>
       <c r="E337" t="n">
@@ -13499,7 +13475,7 @@
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr">
         <is>
-          <t>district__35</t>
+          <t>district__47</t>
         </is>
       </c>
     </row>
@@ -13510,16 +13486,16 @@
         </is>
       </c>
       <c r="B338" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>Kavrepalanchok</t>
+          <t>Parasi</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>काभ्रेपलान्चोक</t>
+          <t>परासी</t>
         </is>
       </c>
       <c r="E338" t="n">
@@ -13537,7 +13513,7 @@
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr">
         <is>
-          <t>district__36</t>
+          <t>district__48</t>
         </is>
       </c>
     </row>
@@ -13548,16 +13524,16 @@
         </is>
       </c>
       <c r="B339" t="n">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>Khotang</t>
+          <t>Nuwakot</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>खोटाँग</t>
+          <t>नुवाकोट</t>
         </is>
       </c>
       <c r="E339" t="n">
@@ -13575,7 +13551,7 @@
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr">
         <is>
-          <t>district__37</t>
+          <t>district__49</t>
         </is>
       </c>
     </row>
@@ -13586,16 +13562,16 @@
         </is>
       </c>
       <c r="B340" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>Lalitpur</t>
+          <t>Okhaldhunga</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>ललितपुर</t>
+          <t>ओखलढुंगा</t>
         </is>
       </c>
       <c r="E340" t="n">
@@ -13613,7 +13589,7 @@
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr">
         <is>
-          <t>district__38</t>
+          <t>district__50</t>
         </is>
       </c>
     </row>
@@ -13624,16 +13600,16 @@
         </is>
       </c>
       <c r="B341" t="n">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>Lamjung</t>
+          <t>Palpa</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>लमजुङ</t>
+          <t>पाल्पा</t>
         </is>
       </c>
       <c r="E341" t="n">
@@ -13651,7 +13627,7 @@
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr">
         <is>
-          <t>district__39</t>
+          <t>district__51</t>
         </is>
       </c>
     </row>
@@ -13662,16 +13638,16 @@
         </is>
       </c>
       <c r="B342" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>Mahottari</t>
+          <t>Panchthar</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>महोत्तरी</t>
+          <t>पांचथर</t>
         </is>
       </c>
       <c r="E342" t="n">
@@ -13689,7 +13665,7 @@
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr">
         <is>
-          <t>district__40</t>
+          <t>district__52</t>
         </is>
       </c>
     </row>
@@ -13700,16 +13676,16 @@
         </is>
       </c>
       <c r="B343" t="n">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>Makwanpur</t>
+          <t>Parbat</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>मकवानपुर</t>
+          <t>पर्वत</t>
         </is>
       </c>
       <c r="E343" t="n">
@@ -13727,7 +13703,7 @@
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr">
         <is>
-          <t>district__41</t>
+          <t>district__53</t>
         </is>
       </c>
     </row>
@@ -13738,16 +13714,16 @@
         </is>
       </c>
       <c r="B344" t="n">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>Manang</t>
+          <t>Parsa</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>मनाङ</t>
+          <t>पर्सा</t>
         </is>
       </c>
       <c r="E344" t="n">
@@ -13765,7 +13741,7 @@
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr">
         <is>
-          <t>district__42</t>
+          <t>district__54</t>
         </is>
       </c>
     </row>
@@ -13776,16 +13752,16 @@
         </is>
       </c>
       <c r="B345" t="n">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>Morang</t>
+          <t>Pyuthan</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>मोरंग</t>
+          <t>प्युठान</t>
         </is>
       </c>
       <c r="E345" t="n">
@@ -13803,7 +13779,7 @@
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr">
         <is>
-          <t>district__43</t>
+          <t>district__55</t>
         </is>
       </c>
     </row>
@@ -13814,16 +13790,16 @@
         </is>
       </c>
       <c r="B346" t="n">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>Mugu</t>
+          <t>Ramechhap</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>मुगु</t>
+          <t>रामेछाप</t>
         </is>
       </c>
       <c r="E346" t="n">
@@ -13841,7 +13817,7 @@
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr">
         <is>
-          <t>district__44</t>
+          <t>district__56</t>
         </is>
       </c>
     </row>
@@ -13852,16 +13828,16 @@
         </is>
       </c>
       <c r="B347" t="n">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>Mustang</t>
+          <t>Rasuwa</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>मुस्ताङ</t>
+          <t>रसुवा</t>
         </is>
       </c>
       <c r="E347" t="n">
@@ -13879,7 +13855,7 @@
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr">
         <is>
-          <t>district__45</t>
+          <t>district__57</t>
         </is>
       </c>
     </row>
@@ -13890,16 +13866,16 @@
         </is>
       </c>
       <c r="B348" t="n">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>Myagdi</t>
+          <t>Rautahat</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>म्याग्दी</t>
+          <t>रौतहट</t>
         </is>
       </c>
       <c r="E348" t="n">
@@ -13917,7 +13893,7 @@
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr">
         <is>
-          <t>district__46</t>
+          <t>district__58</t>
         </is>
       </c>
     </row>
@@ -13928,16 +13904,16 @@
         </is>
       </c>
       <c r="B349" t="n">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>Nawalpur</t>
+          <t>Rolpa</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>नवलपुर</t>
+          <t>रोल्पा</t>
         </is>
       </c>
       <c r="E349" t="n">
@@ -13955,7 +13931,7 @@
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr">
         <is>
-          <t>district__47</t>
+          <t>district__59</t>
         </is>
       </c>
     </row>
@@ -13966,16 +13942,16 @@
         </is>
       </c>
       <c r="B350" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>Parasi</t>
+          <t>Rukum East</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>परासी</t>
+          <t>पूर्वी रूकुम</t>
         </is>
       </c>
       <c r="E350" t="n">
@@ -13993,7 +13969,7 @@
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr">
         <is>
-          <t>district__48</t>
+          <t>district__60</t>
         </is>
       </c>
     </row>
@@ -14004,16 +13980,16 @@
         </is>
       </c>
       <c r="B351" t="n">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>Nuwakot</t>
+          <t>Rukum West</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>नुवाकोट</t>
+          <t>पश्चिमी रूकुम</t>
         </is>
       </c>
       <c r="E351" t="n">
@@ -14031,7 +14007,7 @@
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr">
         <is>
-          <t>district__49</t>
+          <t>district__61</t>
         </is>
       </c>
     </row>
@@ -14042,16 +14018,16 @@
         </is>
       </c>
       <c r="B352" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>Okhaldhunga</t>
+          <t>Rupandehi</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>ओखलढुंगा</t>
+          <t>रुपन्देही</t>
         </is>
       </c>
       <c r="E352" t="n">
@@ -14069,7 +14045,7 @@
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr">
         <is>
-          <t>district__50</t>
+          <t>district__62</t>
         </is>
       </c>
     </row>
@@ -14080,16 +14056,16 @@
         </is>
       </c>
       <c r="B353" t="n">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>Palpa</t>
+          <t>Salyan</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>पाल्पा</t>
+          <t>सल्यान</t>
         </is>
       </c>
       <c r="E353" t="n">
@@ -14107,7 +14083,7 @@
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr">
         <is>
-          <t>district__51</t>
+          <t>district__63</t>
         </is>
       </c>
     </row>
@@ -14118,16 +14094,16 @@
         </is>
       </c>
       <c r="B354" t="n">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>Panchthar</t>
+          <t>Sankhuwasabha</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>पांचथर</t>
+          <t>संखुवासभा</t>
         </is>
       </c>
       <c r="E354" t="n">
@@ -14145,7 +14121,7 @@
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr">
         <is>
-          <t>district__52</t>
+          <t>district__64</t>
         </is>
       </c>
     </row>
@@ -14156,16 +14132,16 @@
         </is>
       </c>
       <c r="B355" t="n">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>Parbat</t>
+          <t>Saptari</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>पर्वत</t>
+          <t>सप्तरी</t>
         </is>
       </c>
       <c r="E355" t="n">
@@ -14183,7 +14159,7 @@
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr">
         <is>
-          <t>district__53</t>
+          <t>district__65</t>
         </is>
       </c>
     </row>
@@ -14194,16 +14170,16 @@
         </is>
       </c>
       <c r="B356" t="n">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>Parsa</t>
+          <t>Sarlahi</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>पर्सा</t>
+          <t>सर्लाही</t>
         </is>
       </c>
       <c r="E356" t="n">
@@ -14221,7 +14197,7 @@
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr">
         <is>
-          <t>district__54</t>
+          <t>district__66</t>
         </is>
       </c>
     </row>
@@ -14232,16 +14208,16 @@
         </is>
       </c>
       <c r="B357" t="n">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>Pyuthan</t>
+          <t>Sindhuli</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>प्युठान</t>
+          <t>सिन्धुली</t>
         </is>
       </c>
       <c r="E357" t="n">
@@ -14259,7 +14235,7 @@
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr">
         <is>
-          <t>district__55</t>
+          <t>district__67</t>
         </is>
       </c>
     </row>
@@ -14270,16 +14246,16 @@
         </is>
       </c>
       <c r="B358" t="n">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>Ramechhap</t>
+          <t>Sindhupalchok</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>रामेछाप</t>
+          <t>सिन्धुपाल्चोक</t>
         </is>
       </c>
       <c r="E358" t="n">
@@ -14297,7 +14273,7 @@
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr">
         <is>
-          <t>district__56</t>
+          <t>district__68</t>
         </is>
       </c>
     </row>
@@ -14308,16 +14284,16 @@
         </is>
       </c>
       <c r="B359" t="n">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>Rasuwa</t>
+          <t>Siraha</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>रसुवा</t>
+          <t>सिराहा</t>
         </is>
       </c>
       <c r="E359" t="n">
@@ -14335,7 +14311,7 @@
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr">
         <is>
-          <t>district__57</t>
+          <t>district__69</t>
         </is>
       </c>
     </row>
@@ -14346,16 +14322,16 @@
         </is>
       </c>
       <c r="B360" t="n">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>Rautahat</t>
+          <t>Solukhumbu</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>रौतहट</t>
+          <t>सोलुखुम्बू</t>
         </is>
       </c>
       <c r="E360" t="n">
@@ -14373,7 +14349,7 @@
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr">
         <is>
-          <t>district__58</t>
+          <t>district__70</t>
         </is>
       </c>
     </row>
@@ -14384,16 +14360,16 @@
         </is>
       </c>
       <c r="B361" t="n">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>Rolpa</t>
+          <t>Sunsari</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>रोल्पा</t>
+          <t>सुनसरी</t>
         </is>
       </c>
       <c r="E361" t="n">
@@ -14411,7 +14387,7 @@
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr">
         <is>
-          <t>district__59</t>
+          <t>district__71</t>
         </is>
       </c>
     </row>
@@ -14422,16 +14398,16 @@
         </is>
       </c>
       <c r="B362" t="n">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>Rukum East</t>
+          <t>Surkhet</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>पूर्वी रूकुम</t>
+          <t>सुर्खेत</t>
         </is>
       </c>
       <c r="E362" t="n">
@@ -14449,7 +14425,7 @@
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr">
         <is>
-          <t>district__60</t>
+          <t>district__72</t>
         </is>
       </c>
     </row>
@@ -14460,16 +14436,16 @@
         </is>
       </c>
       <c r="B363" t="n">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>Rukum West</t>
+          <t>Syangja</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>पश्चिमी रूकुम</t>
+          <t>स्याङग्जा</t>
         </is>
       </c>
       <c r="E363" t="n">
@@ -14487,7 +14463,7 @@
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr">
         <is>
-          <t>district__61</t>
+          <t>district__73</t>
         </is>
       </c>
     </row>
@@ -14498,16 +14474,16 @@
         </is>
       </c>
       <c r="B364" t="n">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>Rupandehi</t>
+          <t>Tanahu</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>रुपन्देही</t>
+          <t>तनहुँ</t>
         </is>
       </c>
       <c r="E364" t="n">
@@ -14525,7 +14501,7 @@
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr">
         <is>
-          <t>district__62</t>
+          <t>district__74</t>
         </is>
       </c>
     </row>
@@ -14536,16 +14512,16 @@
         </is>
       </c>
       <c r="B365" t="n">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>Salyan</t>
+          <t>Taplejung</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>सल्यान</t>
+          <t>ताप्लेजुंग</t>
         </is>
       </c>
       <c r="E365" t="n">
@@ -14563,7 +14539,7 @@
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr">
         <is>
-          <t>district__63</t>
+          <t>district__75</t>
         </is>
       </c>
     </row>
@@ -14574,16 +14550,16 @@
         </is>
       </c>
       <c r="B366" t="n">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>Sankhuwasabha</t>
+          <t>Terhathum</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>संखुवासभा</t>
+          <t>तेह्रथुम</t>
         </is>
       </c>
       <c r="E366" t="n">
@@ -14601,7 +14577,7 @@
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr">
         <is>
-          <t>district__64</t>
+          <t>district__76</t>
         </is>
       </c>
     </row>
@@ -14612,16 +14588,16 @@
         </is>
       </c>
       <c r="B367" t="n">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>Saptari</t>
+          <t>Udayapur</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>सप्तरी</t>
+          <t>उदयपुर</t>
         </is>
       </c>
       <c r="E367" t="n">
@@ -14638,462 +14614,6 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr">
-        <is>
-          <t>district__65</t>
-        </is>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="inlineStr">
-        <is>
-          <t>district</t>
-        </is>
-      </c>
-      <c r="B368" t="n">
-        <v>66</v>
-      </c>
-      <c r="C368" t="inlineStr">
-        <is>
-          <t>Sarlahi</t>
-        </is>
-      </c>
-      <c r="D368" t="inlineStr">
-        <is>
-          <t>सर्लाही</t>
-        </is>
-      </c>
-      <c r="E368" t="n">
-        <v>0</v>
-      </c>
-      <c r="F368" t="n">
-        <v>0</v>
-      </c>
-      <c r="G368" t="n">
-        <v>0</v>
-      </c>
-      <c r="H368" t="n">
-        <v>258</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr">
-        <is>
-          <t>district__66</t>
-        </is>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="inlineStr">
-        <is>
-          <t>district</t>
-        </is>
-      </c>
-      <c r="B369" t="n">
-        <v>67</v>
-      </c>
-      <c r="C369" t="inlineStr">
-        <is>
-          <t>Sindhuli</t>
-        </is>
-      </c>
-      <c r="D369" t="inlineStr">
-        <is>
-          <t>सिन्धुली</t>
-        </is>
-      </c>
-      <c r="E369" t="n">
-        <v>0</v>
-      </c>
-      <c r="F369" t="n">
-        <v>0</v>
-      </c>
-      <c r="G369" t="n">
-        <v>0</v>
-      </c>
-      <c r="H369" t="n">
-        <v>258</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr">
-        <is>
-          <t>district__67</t>
-        </is>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="inlineStr">
-        <is>
-          <t>district</t>
-        </is>
-      </c>
-      <c r="B370" t="n">
-        <v>68</v>
-      </c>
-      <c r="C370" t="inlineStr">
-        <is>
-          <t>Sindhupalchok</t>
-        </is>
-      </c>
-      <c r="D370" t="inlineStr">
-        <is>
-          <t>सिन्धुपाल्चोक</t>
-        </is>
-      </c>
-      <c r="E370" t="n">
-        <v>0</v>
-      </c>
-      <c r="F370" t="n">
-        <v>0</v>
-      </c>
-      <c r="G370" t="n">
-        <v>0</v>
-      </c>
-      <c r="H370" t="n">
-        <v>258</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr">
-        <is>
-          <t>district__68</t>
-        </is>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="inlineStr">
-        <is>
-          <t>district</t>
-        </is>
-      </c>
-      <c r="B371" t="n">
-        <v>69</v>
-      </c>
-      <c r="C371" t="inlineStr">
-        <is>
-          <t>Siraha</t>
-        </is>
-      </c>
-      <c r="D371" t="inlineStr">
-        <is>
-          <t>सिराहा</t>
-        </is>
-      </c>
-      <c r="E371" t="n">
-        <v>0</v>
-      </c>
-      <c r="F371" t="n">
-        <v>0</v>
-      </c>
-      <c r="G371" t="n">
-        <v>0</v>
-      </c>
-      <c r="H371" t="n">
-        <v>258</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr">
-        <is>
-          <t>district__69</t>
-        </is>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="inlineStr">
-        <is>
-          <t>district</t>
-        </is>
-      </c>
-      <c r="B372" t="n">
-        <v>70</v>
-      </c>
-      <c r="C372" t="inlineStr">
-        <is>
-          <t>Solukhumbu</t>
-        </is>
-      </c>
-      <c r="D372" t="inlineStr">
-        <is>
-          <t>सोलुखुम्बू</t>
-        </is>
-      </c>
-      <c r="E372" t="n">
-        <v>0</v>
-      </c>
-      <c r="F372" t="n">
-        <v>0</v>
-      </c>
-      <c r="G372" t="n">
-        <v>0</v>
-      </c>
-      <c r="H372" t="n">
-        <v>258</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr">
-        <is>
-          <t>district__70</t>
-        </is>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="inlineStr">
-        <is>
-          <t>district</t>
-        </is>
-      </c>
-      <c r="B373" t="n">
-        <v>71</v>
-      </c>
-      <c r="C373" t="inlineStr">
-        <is>
-          <t>Sunsari</t>
-        </is>
-      </c>
-      <c r="D373" t="inlineStr">
-        <is>
-          <t>सुनसरी</t>
-        </is>
-      </c>
-      <c r="E373" t="n">
-        <v>0</v>
-      </c>
-      <c r="F373" t="n">
-        <v>0</v>
-      </c>
-      <c r="G373" t="n">
-        <v>0</v>
-      </c>
-      <c r="H373" t="n">
-        <v>258</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr">
-        <is>
-          <t>district__71</t>
-        </is>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="inlineStr">
-        <is>
-          <t>district</t>
-        </is>
-      </c>
-      <c r="B374" t="n">
-        <v>72</v>
-      </c>
-      <c r="C374" t="inlineStr">
-        <is>
-          <t>Surkhet</t>
-        </is>
-      </c>
-      <c r="D374" t="inlineStr">
-        <is>
-          <t>सुर्खेत</t>
-        </is>
-      </c>
-      <c r="E374" t="n">
-        <v>0</v>
-      </c>
-      <c r="F374" t="n">
-        <v>0</v>
-      </c>
-      <c r="G374" t="n">
-        <v>0</v>
-      </c>
-      <c r="H374" t="n">
-        <v>258</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr">
-        <is>
-          <t>district__72</t>
-        </is>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="inlineStr">
-        <is>
-          <t>district</t>
-        </is>
-      </c>
-      <c r="B375" t="n">
-        <v>73</v>
-      </c>
-      <c r="C375" t="inlineStr">
-        <is>
-          <t>Syangja</t>
-        </is>
-      </c>
-      <c r="D375" t="inlineStr">
-        <is>
-          <t>स्याङग्जा</t>
-        </is>
-      </c>
-      <c r="E375" t="n">
-        <v>0</v>
-      </c>
-      <c r="F375" t="n">
-        <v>0</v>
-      </c>
-      <c r="G375" t="n">
-        <v>0</v>
-      </c>
-      <c r="H375" t="n">
-        <v>258</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr">
-        <is>
-          <t>district__73</t>
-        </is>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="inlineStr">
-        <is>
-          <t>district</t>
-        </is>
-      </c>
-      <c r="B376" t="n">
-        <v>74</v>
-      </c>
-      <c r="C376" t="inlineStr">
-        <is>
-          <t>Tanahu</t>
-        </is>
-      </c>
-      <c r="D376" t="inlineStr">
-        <is>
-          <t>तनहुँ</t>
-        </is>
-      </c>
-      <c r="E376" t="n">
-        <v>0</v>
-      </c>
-      <c r="F376" t="n">
-        <v>0</v>
-      </c>
-      <c r="G376" t="n">
-        <v>0</v>
-      </c>
-      <c r="H376" t="n">
-        <v>258</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr">
-        <is>
-          <t>district__74</t>
-        </is>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="inlineStr">
-        <is>
-          <t>district</t>
-        </is>
-      </c>
-      <c r="B377" t="n">
-        <v>75</v>
-      </c>
-      <c r="C377" t="inlineStr">
-        <is>
-          <t>Taplejung</t>
-        </is>
-      </c>
-      <c r="D377" t="inlineStr">
-        <is>
-          <t>ताप्लेजुंग</t>
-        </is>
-      </c>
-      <c r="E377" t="n">
-        <v>0</v>
-      </c>
-      <c r="F377" t="n">
-        <v>0</v>
-      </c>
-      <c r="G377" t="n">
-        <v>0</v>
-      </c>
-      <c r="H377" t="n">
-        <v>258</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr">
-        <is>
-          <t>district__75</t>
-        </is>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="inlineStr">
-        <is>
-          <t>district</t>
-        </is>
-      </c>
-      <c r="B378" t="n">
-        <v>76</v>
-      </c>
-      <c r="C378" t="inlineStr">
-        <is>
-          <t>Terhathum</t>
-        </is>
-      </c>
-      <c r="D378" t="inlineStr">
-        <is>
-          <t>तेह्रथुम</t>
-        </is>
-      </c>
-      <c r="E378" t="n">
-        <v>0</v>
-      </c>
-      <c r="F378" t="n">
-        <v>0</v>
-      </c>
-      <c r="G378" t="n">
-        <v>0</v>
-      </c>
-      <c r="H378" t="n">
-        <v>258</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr">
-        <is>
-          <t>district__76</t>
-        </is>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t>district</t>
-        </is>
-      </c>
-      <c r="B379" t="n">
-        <v>77</v>
-      </c>
-      <c r="C379" t="inlineStr">
-        <is>
-          <t>Udayapur</t>
-        </is>
-      </c>
-      <c r="D379" t="inlineStr">
-        <is>
-          <t>उदयपुर</t>
-        </is>
-      </c>
-      <c r="E379" t="n">
-        <v>0</v>
-      </c>
-      <c r="F379" t="n">
-        <v>0</v>
-      </c>
-      <c r="G379" t="n">
-        <v>0</v>
-      </c>
-      <c r="H379" t="n">
-        <v>258</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr">
         <is>
           <t>district__77</t>
         </is>
